--- a/Feb_2008.xlsx
+++ b/Feb_2008.xlsx
@@ -14,7 +14,13 @@
   <sheets>
     <sheet name="Formatted Data" sheetId="1" r:id="rId1"/>
     <sheet name="RAW" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="Feb_2008" localSheetId="1">RAW!$A$1:$C$188</definedName>
+    <definedName name="Feb_2008_LOC" localSheetId="1">RAW!$I$1:$L$50</definedName>
+    <definedName name="Feb_2008_LOC" localSheetId="2">Sheet1!$G$1:$J$50</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,8 +30,42 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Feb_2008" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\User\Documents\seng403_New\Feb_2008.txt" space="1" comma="1" consecutive="1" delimiter=":">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="Feb_2008_LOC" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\User\Documents\seng403_New\Feb_2008_LOC.txt" comma="1" delimiter=":">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="Feb_2008_LOC1" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\User\Documents\seng403_New\Feb_2008_LOC.txt" comma="1" delimiter=":">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="78">
   <si>
     <t>GHTorrentName</t>
   </si>
@@ -74,12 +114,205 @@
   <si>
     <t>Total LOC per Component</t>
   </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Dwight</t>
+  </si>
+  <si>
+    <t>c2e932245f2e4fb00f1abbb94fa0b4a4a69636df</t>
+  </si>
+  <si>
+    <t>db/</t>
+  </si>
+  <si>
+    <t>5b4f184fcc018e89e7dcb74c7c8c41e14ea2e279</t>
+  </si>
+  <si>
+    <t>782ceb6f3b96dd4147691416ab616f3cf9a44b33</t>
+  </si>
+  <si>
+    <t>00b50ed6eb5ef3f4eb80695ea4cbb0df98fdd510</t>
+  </si>
+  <si>
+    <t>9620db309dcebfc7ee45b1cfca36d3380aabb20f</t>
+  </si>
+  <si>
+    <t>225d58f88ee2233ef868ef570228bcbe52735dd1</t>
+  </si>
+  <si>
+    <t>8a66ac7a48e608c2939817d826af355e698a880c</t>
+  </si>
+  <si>
+    <t>a00a904aa7f3f87a1cc6bd7d9c8a9d6b4d2e3cbb</t>
+  </si>
+  <si>
+    <t>ed155a7fdbe3f85a3909d238b5777838915bbea4</t>
+  </si>
+  <si>
+    <t>158889dccdf44fad5ecf066df727ee6006b719e1</t>
+  </si>
+  <si>
+    <t>util/</t>
+  </si>
+  <si>
+    <t>7dc85fae2cf1a4dc178c0a530a9822f955ec9885</t>
+  </si>
+  <si>
+    <t>880049d39e7bbf5aa496e2e5ee673721fc44e1b4</t>
+  </si>
+  <si>
+    <t>grid/</t>
+  </si>
+  <si>
+    <t>dce3cb2a9e6b01044af0edd7b1b5bfbfddddcc04</t>
+  </si>
+  <si>
+    <t>3fc3a61fdabc5eb663348b2d1dc5080bbdde6823</t>
+  </si>
+  <si>
+    <t>9cb73f240f808d89b9a394286dcae464c1016e6e</t>
+  </si>
+  <si>
+    <t>13e6a66d0897a41c31bc0b49dac4c41b74fb14e8</t>
+  </si>
+  <si>
+    <t>0fafc08113b9929320e4689d700c455907ec987f</t>
+  </si>
+  <si>
+    <t>661156fd1addb479af105f89cc19f54f7874a407</t>
+  </si>
+  <si>
+    <t>1ebb06ede3d50f5018e6dd81009e8f16e8fc2ded</t>
+  </si>
+  <si>
+    <t>40aa7d63b949c02315b399cd711bf97e6ca84800</t>
+  </si>
+  <si>
+    <t>6d1d189d79afe4c4b5f49bb33a44a0708a773b93</t>
+  </si>
+  <si>
+    <t>e895ee68441ba121708bc468974dd94a5d0f8794</t>
+  </si>
+  <si>
+    <t>8b6fb113853726ba7b5e1f47900c3a2069826174</t>
+  </si>
+  <si>
+    <t>031790ba190cb677a89b4a6c75c1905c1c85bc1e</t>
+  </si>
+  <si>
+    <t>b59d9b5f65cd819c528282cafbeaab95d0775efb</t>
+  </si>
+  <si>
+    <t>4f4c54fcbbf19207429e58d18f333957756874bc</t>
+  </si>
+  <si>
+    <t>33b635ea54e5485a8144ba45d3459298fe671208</t>
+  </si>
+  <si>
+    <t>f6c30d15f08d567b2f5ae6111443825edc04f1e4</t>
+  </si>
+  <si>
+    <t>4669f5d10b89fbf59ce3d051c376ba19addf2446</t>
+  </si>
+  <si>
+    <t>d58f6303583762c74c9d90576d63ce818f1516b2</t>
+  </si>
+  <si>
+    <t>e91eda24151567047219e9c925f3960fdc318dd7</t>
+  </si>
+  <si>
+    <t>ab8490242865014b2ad50e4db50d830e0faf4b62</t>
+  </si>
+  <si>
+    <t>32ae4e1d1268f8a754d3495e6564103d618b5b71</t>
+  </si>
+  <si>
+    <t>329020083a639d04c052a1a46d8c25d908d74d06</t>
+  </si>
+  <si>
+    <t>Eliot</t>
+  </si>
+  <si>
+    <t>Horowitz</t>
+  </si>
+  <si>
+    <t>803b7e32d9669807260c8a6549fcf7fe54ab0859</t>
+  </si>
+  <si>
+    <t>5b0458b68ed87a0aa12b050694b161e5487ebc4c</t>
+  </si>
+  <si>
+    <t>dfd1aaafb8709c416783916200d51fcaea6a7564</t>
+  </si>
+  <si>
+    <t>7ab80ff396295a102c85083ebcf38518fdfa3d50</t>
+  </si>
+  <si>
+    <t>02c5ac320629639a03ff23844b13453152a9d7b9</t>
+  </si>
+  <si>
+    <t>4df9632b6a9a8147e4354f5bd586c211d332b7ff</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>64cf047baf3ebc7532d1d21c77cbddcda0059723</t>
+  </si>
+  <si>
+    <t>67f1992ff03992235b50cb2f4ca7d226919651b2</t>
+  </si>
+  <si>
+    <t>ef779e83bdf5b2ad6aa1eb5c5eab6af664916641</t>
+  </si>
+  <si>
+    <t>d70f23c37fc642421e72303049451f926e655904</t>
+  </si>
+  <si>
+    <t>9398246078597aa850477ea33fb03b46476db9da</t>
+  </si>
+  <si>
+    <t>57ebc636f2e015f0bf2549584b76b046506b1e80</t>
+  </si>
+  <si>
+    <t>dc20e53904feaeccd03c2b864af58e7ef017816e</t>
+  </si>
+  <si>
+    <t>3be5d865852314623301dd1d7803f42c8a8c3d68</t>
+  </si>
+  <si>
+    <t>175cfcc70b03ab99411cfae9d8bffc3b7740bebf</t>
+  </si>
+  <si>
+    <t>bin/</t>
+  </si>
+  <si>
+    <t>9eb797ca4dba77225ce700d25007b39e37663e10</t>
+  </si>
+  <si>
+    <t>hash</t>
+  </si>
+  <si>
+    <t>Total LOC</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,16 +344,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -133,6 +370,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Feb_2008_LOC" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Feb_2008" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Feb_2008_LOC" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -400,15 +649,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.7109375" bestFit="1" customWidth="1"/>
@@ -436,7 +685,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -477,10 +726,14 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="1"/>
       <c r="H2" s="1">
         <v>0</v>
@@ -500,7 +753,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="1"/>
       <c r="H3" s="1">
         <v>0</v>
@@ -519,10 +772,19 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f>F4*E4</f>
+        <v>0</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
       <c r="L4" s="1"/>
@@ -538,9 +800,12 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="str">
+        <f>IF($E5*$F5=0,"",$E5*$F5)</f>
+        <v/>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="1"/>
       <c r="L5" s="1"/>
@@ -554,11 +819,16 @@
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="str">
+        <f t="shared" ref="H6:H69" si="0">IF($E6*$F6=0,"",$E6*$F6)</f>
+        <v/>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="1"/>
       <c r="L6" s="1"/>
@@ -574,9 +844,12 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="1"/>
       <c r="L7" s="1"/>
@@ -591,10 +864,19 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <f>IF($E8*$F8=0,"",$E8*$F8)</f>
+        <v>1</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
       <c r="L8" s="1"/>
@@ -610,9 +892,12 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="1"/>
       <c r="L9" s="1"/>
@@ -626,11 +911,21 @@
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="1">
+        <v>37</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="1"/>
       <c r="L10" s="1"/>
@@ -646,9 +941,14 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="1">
+        <v>37</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="1"/>
       <c r="L11" s="1"/>
@@ -663,10 +963,19 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>37</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="1"/>
       <c r="L12" s="1"/>
@@ -682,9 +991,14 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="1">
+        <v>37</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
       <c r="L13" s="1"/>
@@ -698,11 +1012,18 @@
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="1">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="1"/>
       <c r="L14" s="1"/>
@@ -718,9 +1039,14 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="1">
+        <v>4</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
       <c r="L15" s="1"/>
@@ -735,10 +1061,19 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="1"/>
       <c r="L16" s="1"/>
@@ -749,7 +1084,16 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="1">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="1"/>
       <c r="L17" s="1"/>
@@ -757,7 +1101,19 @@
       <c r="N17" s="1"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="4"/>
+      <c r="F18">
+        <v>-1</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="1"/>
       <c r="L18" s="1"/>
@@ -765,7 +1121,16 @@
       <c r="N18" s="1"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="1"/>
       <c r="L19" s="1"/>
@@ -773,7 +1138,20 @@
       <c r="N19" s="1"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="1"/>
       <c r="L20" s="1"/>
@@ -781,7 +1159,16 @@
       <c r="N20" s="1"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D21" s="1"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
       <c r="L21" s="1"/>
@@ -789,7 +1176,19 @@
       <c r="N21" s="1"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="4"/>
+      <c r="F22">
+        <v>-11</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I22" s="2"/>
       <c r="J22" s="1"/>
       <c r="L22" s="1"/>
@@ -797,7 +1196,16 @@
       <c r="N22" s="1"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D23" s="1"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1">
+        <v>-11</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I23" s="2"/>
       <c r="J23" s="1"/>
       <c r="L23" s="1"/>
@@ -805,7 +1213,20 @@
       <c r="N23" s="1"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>-11</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="0"/>
+        <v>-11</v>
+      </c>
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
       <c r="L24" s="1"/>
@@ -813,7 +1234,16 @@
       <c r="N24" s="1"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D25" s="1"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="1">
+        <v>-11</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I25" s="2"/>
       <c r="J25" s="1"/>
       <c r="L25" s="1"/>
@@ -821,7 +1251,19 @@
       <c r="N25" s="1"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="4"/>
+      <c r="F26">
+        <v>8</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I26" s="2"/>
       <c r="J26" s="1"/>
       <c r="L26" s="1"/>
@@ -829,7 +1271,16 @@
       <c r="N26" s="1"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D27" s="1"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="1">
+        <v>8</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I27" s="2"/>
       <c r="J27" s="1"/>
       <c r="L27" s="1"/>
@@ -837,7 +1288,20 @@
       <c r="N27" s="1"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>8</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="I28" s="2"/>
       <c r="J28" s="1"/>
       <c r="L28" s="1"/>
@@ -845,7 +1309,16 @@
       <c r="N28" s="1"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D29" s="1"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="1">
+        <v>8</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I29" s="2"/>
       <c r="J29" s="1"/>
       <c r="L29" s="1"/>
@@ -853,7 +1326,19 @@
       <c r="N29" s="1"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="4"/>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I30" s="2"/>
       <c r="J30" s="1"/>
       <c r="L30" s="1"/>
@@ -861,7 +1346,16 @@
       <c r="N30" s="1"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D31" s="1"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I31" s="2"/>
       <c r="J31" s="1"/>
       <c r="L31" s="1"/>
@@ -869,7 +1363,20 @@
       <c r="N31" s="1"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I32" s="2"/>
       <c r="J32" s="1"/>
       <c r="L32" s="1"/>
@@ -877,7 +1384,16 @@
       <c r="N32" s="1"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D33" s="1"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I33" s="2"/>
       <c r="J33" s="1"/>
       <c r="L33" s="1"/>
@@ -885,7 +1401,19 @@
       <c r="N33" s="1"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="4"/>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I34" s="2"/>
       <c r="J34" s="1"/>
       <c r="L34" s="1"/>
@@ -893,7 +1421,16 @@
       <c r="N34" s="1"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D35" s="1"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I35" s="2"/>
       <c r="J35" s="1"/>
       <c r="L35" s="1"/>
@@ -901,7 +1438,20 @@
       <c r="N35" s="1"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="I36" s="2"/>
       <c r="J36" s="1"/>
       <c r="L36" s="1"/>
@@ -909,7 +1459,16 @@
       <c r="N36" s="1"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D37" s="1"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I37" s="2"/>
       <c r="J37" s="1"/>
       <c r="L37" s="1"/>
@@ -917,7 +1476,19 @@
       <c r="N37" s="1"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="4"/>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I38" s="2"/>
       <c r="J38" s="1"/>
       <c r="L38" s="1"/>
@@ -925,7 +1496,16 @@
       <c r="N38" s="1"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D39" s="1"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I39" s="2"/>
       <c r="J39" s="1"/>
       <c r="L39" s="1"/>
@@ -933,7 +1513,20 @@
       <c r="N39" s="1"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I40" s="2"/>
       <c r="J40" s="1"/>
       <c r="L40" s="1"/>
@@ -941,7 +1534,20 @@
       <c r="N40" s="1"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I41" s="2"/>
       <c r="J41" s="1"/>
       <c r="L41" s="1"/>
@@ -949,7 +1555,16 @@
       <c r="N41" s="1"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D42" s="1"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I42" s="2"/>
       <c r="J42" s="1"/>
       <c r="L42" s="1"/>
@@ -957,7 +1572,19 @@
       <c r="N42" s="1"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="4"/>
+      <c r="F43">
+        <v>12</v>
+      </c>
+      <c r="H43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I43" s="2"/>
       <c r="J43" s="1"/>
       <c r="L43" s="1"/>
@@ -965,7 +1592,16 @@
       <c r="N43" s="1"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D44" s="1"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="1">
+        <v>12</v>
+      </c>
+      <c r="H44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I44" s="2"/>
       <c r="J44" s="1"/>
       <c r="L44" s="1"/>
@@ -973,7 +1609,20 @@
       <c r="N44" s="1"/>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>12</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="I45" s="2"/>
       <c r="J45" s="1"/>
       <c r="L45" s="1"/>
@@ -981,7 +1630,16 @@
       <c r="N45" s="1"/>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D46" s="1"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="1">
+        <v>12</v>
+      </c>
+      <c r="H46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I46" s="2"/>
       <c r="J46" s="1"/>
       <c r="L46" s="1"/>
@@ -989,7 +1647,19 @@
       <c r="N46" s="1"/>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="4"/>
+      <c r="F47">
+        <v>12</v>
+      </c>
+      <c r="H47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I47" s="2"/>
       <c r="J47" s="1"/>
       <c r="L47" s="1"/>
@@ -997,7 +1667,16 @@
       <c r="N47" s="1"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D48" s="1"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="1">
+        <v>12</v>
+      </c>
+      <c r="H48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I48" s="2"/>
       <c r="J48" s="1"/>
       <c r="L48" s="1"/>
@@ -1005,7 +1684,20 @@
       <c r="N48" s="1"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="F49" s="1">
+        <v>12</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="0"/>
+        <v>6.6840000000000011</v>
+      </c>
       <c r="I49" s="2"/>
       <c r="J49" s="1"/>
       <c r="L49" s="1"/>
@@ -1013,7 +1705,20 @@
       <c r="N49" s="1"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0.442</v>
+      </c>
+      <c r="F50" s="1">
+        <v>12</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="0"/>
+        <v>5.3040000000000003</v>
+      </c>
       <c r="I50" s="2"/>
       <c r="J50" s="1"/>
       <c r="L50" s="1"/>
@@ -1021,7 +1726,16 @@
       <c r="N50" s="1"/>
       <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D51" s="1"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="1">
+        <v>12</v>
+      </c>
+      <c r="H51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I51" s="2"/>
       <c r="J51" s="1"/>
       <c r="L51" s="1"/>
@@ -1029,7 +1743,19 @@
       <c r="N51" s="1"/>
       <c r="O51" s="2"/>
     </row>
-    <row r="52" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="4"/>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="H52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I52" s="2"/>
       <c r="J52" s="1"/>
       <c r="L52" s="1"/>
@@ -1037,7 +1763,16 @@
       <c r="N52" s="1"/>
       <c r="O52" s="2"/>
     </row>
-    <row r="53" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D53" s="1"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
+      <c r="H53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I53" s="2"/>
       <c r="J53" s="1"/>
       <c r="L53" s="1"/>
@@ -1045,7 +1780,20 @@
       <c r="N53" s="1"/>
       <c r="O53" s="2"/>
     </row>
-    <row r="54" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="4">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="I54" s="2"/>
       <c r="J54" s="1"/>
       <c r="L54" s="1"/>
@@ -1053,7 +1801,16 @@
       <c r="N54" s="1"/>
       <c r="O54" s="2"/>
     </row>
-    <row r="55" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D55" s="1"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="H55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I55" s="2"/>
       <c r="J55" s="1"/>
       <c r="L55" s="1"/>
@@ -1061,7 +1818,19 @@
       <c r="N55" s="1"/>
       <c r="O55" s="2"/>
     </row>
-    <row r="56" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="4"/>
+      <c r="F56">
+        <v>8</v>
+      </c>
+      <c r="H56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I56" s="2"/>
       <c r="J56" s="1"/>
       <c r="L56" s="1"/>
@@ -1069,7 +1838,16 @@
       <c r="N56" s="1"/>
       <c r="O56" s="2"/>
     </row>
-    <row r="57" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D57" s="1"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="1">
+        <v>8</v>
+      </c>
+      <c r="H57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I57" s="2"/>
       <c r="J57" s="1"/>
       <c r="L57" s="1"/>
@@ -1077,7 +1855,20 @@
       <c r="N57" s="1"/>
       <c r="O57" s="2"/>
     </row>
-    <row r="58" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1">
+        <v>8</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="I58" s="2"/>
       <c r="J58" s="1"/>
       <c r="L58" s="1"/>
@@ -1085,7 +1876,16 @@
       <c r="N58" s="1"/>
       <c r="O58" s="2"/>
     </row>
-    <row r="59" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D59" s="1"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="1">
+        <v>8</v>
+      </c>
+      <c r="H59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I59" s="2"/>
       <c r="J59" s="1"/>
       <c r="L59" s="1"/>
@@ -1093,7 +1893,19 @@
       <c r="N59" s="1"/>
       <c r="O59" s="2"/>
     </row>
-    <row r="60" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="4"/>
+      <c r="F60">
+        <v>24</v>
+      </c>
+      <c r="H60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I60" s="2"/>
       <c r="J60" s="1"/>
       <c r="L60" s="1"/>
@@ -1101,7 +1913,16 @@
       <c r="N60" s="1"/>
       <c r="O60" s="2"/>
     </row>
-    <row r="61" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D61" s="1"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="1">
+        <v>24</v>
+      </c>
+      <c r="H61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I61" s="2"/>
       <c r="J61" s="1"/>
       <c r="L61" s="1"/>
@@ -1109,7 +1930,20 @@
       <c r="N61" s="1"/>
       <c r="O61" s="2"/>
     </row>
-    <row r="62" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="4">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
+        <v>24</v>
+      </c>
+      <c r="H62" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
       <c r="I62" s="2"/>
       <c r="J62" s="1"/>
       <c r="L62" s="1"/>
@@ -1117,7 +1951,16 @@
       <c r="N62" s="1"/>
       <c r="O62" s="2"/>
     </row>
-    <row r="63" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D63" s="1"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="1">
+        <v>24</v>
+      </c>
+      <c r="H63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I63" s="2"/>
       <c r="J63" s="1"/>
       <c r="L63" s="1"/>
@@ -1125,7 +1968,19 @@
       <c r="N63" s="1"/>
       <c r="O63" s="2"/>
     </row>
-    <row r="64" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="4"/>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="H64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I64" s="2"/>
       <c r="J64" s="1"/>
       <c r="L64" s="1"/>
@@ -1133,7 +1988,16 @@
       <c r="N64" s="1"/>
       <c r="O64" s="2"/>
     </row>
-    <row r="65" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D65" s="1"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+      <c r="H65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I65" s="2"/>
       <c r="J65" s="1"/>
       <c r="L65" s="1"/>
@@ -1141,7 +2005,20 @@
       <c r="N65" s="1"/>
       <c r="O65" s="2"/>
     </row>
-    <row r="66" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="4">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1</v>
+      </c>
+      <c r="H66" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="I66" s="2"/>
       <c r="J66" s="1"/>
       <c r="L66" s="1"/>
@@ -1149,7 +2026,16 @@
       <c r="N66" s="1"/>
       <c r="O66" s="2"/>
     </row>
-    <row r="67" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D67" s="1"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="1">
+        <v>1</v>
+      </c>
+      <c r="H67" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I67" s="2"/>
       <c r="J67" s="1"/>
       <c r="L67" s="1"/>
@@ -1157,7 +2043,19 @@
       <c r="N67" s="1"/>
       <c r="O67" s="2"/>
     </row>
-    <row r="68" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="4"/>
+      <c r="F68">
+        <v>-1</v>
+      </c>
+      <c r="H68" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I68" s="2"/>
       <c r="J68" s="1"/>
       <c r="L68" s="1"/>
@@ -1165,7 +2063,16 @@
       <c r="N68" s="1"/>
       <c r="O68" s="2"/>
     </row>
-    <row r="69" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D69" s="1"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H69" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I69" s="2"/>
       <c r="J69" s="1"/>
       <c r="L69" s="1"/>
@@ -1173,7 +2080,20 @@
       <c r="N69" s="1"/>
       <c r="O69" s="2"/>
     </row>
-    <row r="70" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="4">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H70" s="1">
+        <f t="shared" ref="H70:H133" si="1">IF($E70*$F70=0,"",$E70*$F70)</f>
+        <v>-1</v>
+      </c>
       <c r="I70" s="2"/>
       <c r="J70" s="1"/>
       <c r="L70" s="1"/>
@@ -1181,7 +2101,16 @@
       <c r="N70" s="1"/>
       <c r="O70" s="2"/>
     </row>
-    <row r="71" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D71" s="1"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H71" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I71" s="2"/>
       <c r="J71" s="1"/>
       <c r="L71" s="1"/>
@@ -1189,7 +2118,19 @@
       <c r="N71" s="1"/>
       <c r="O71" s="2"/>
     </row>
-    <row r="72" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="4"/>
+      <c r="F72">
+        <v>11</v>
+      </c>
+      <c r="H72" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I72" s="2"/>
       <c r="J72" s="1"/>
       <c r="L72" s="1"/>
@@ -1197,7 +2138,16 @@
       <c r="N72" s="1"/>
       <c r="O72" s="2"/>
     </row>
-    <row r="73" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D73" s="1"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="1">
+        <v>11</v>
+      </c>
+      <c r="H73" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I73" s="2"/>
       <c r="J73" s="1"/>
       <c r="L73" s="1"/>
@@ -1205,7 +2155,20 @@
       <c r="N73" s="1"/>
       <c r="O73" s="2"/>
     </row>
-    <row r="74" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="4">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="F74" s="1">
+        <v>11</v>
+      </c>
+      <c r="H74" s="1">
+        <f t="shared" si="1"/>
+        <v>9.7460000000000004</v>
+      </c>
       <c r="I74" s="2"/>
       <c r="J74" s="1"/>
       <c r="L74" s="1"/>
@@ -1213,7 +2176,20 @@
       <c r="N74" s="1"/>
       <c r="O74" s="2"/>
     </row>
-    <row r="75" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D75" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E75" s="4">
+        <v>0.113</v>
+      </c>
+      <c r="F75" s="1">
+        <v>11</v>
+      </c>
+      <c r="H75" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2430000000000001</v>
+      </c>
       <c r="I75" s="2"/>
       <c r="J75" s="1"/>
       <c r="L75" s="1"/>
@@ -1221,7 +2197,16 @@
       <c r="N75" s="1"/>
       <c r="O75" s="2"/>
     </row>
-    <row r="76" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D76" s="1"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="1">
+        <v>11</v>
+      </c>
+      <c r="H76" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I76" s="2"/>
       <c r="J76" s="1"/>
       <c r="L76" s="1"/>
@@ -1229,7 +2214,19 @@
       <c r="N76" s="1"/>
       <c r="O76" s="2"/>
     </row>
-    <row r="77" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>39</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="4"/>
+      <c r="F77">
+        <v>6</v>
+      </c>
+      <c r="H77" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I77" s="2"/>
       <c r="J77" s="1"/>
       <c r="L77" s="1"/>
@@ -1237,7 +2234,16 @@
       <c r="N77" s="1"/>
       <c r="O77" s="2"/>
     </row>
-    <row r="78" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D78" s="1"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="1">
+        <v>6</v>
+      </c>
+      <c r="H78" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I78" s="2"/>
       <c r="J78" s="1"/>
       <c r="L78" s="1"/>
@@ -1245,7 +2251,20 @@
       <c r="N78" s="1"/>
       <c r="O78" s="2"/>
     </row>
-    <row r="79" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D79" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" s="4">
+        <v>1</v>
+      </c>
+      <c r="F79" s="1">
+        <v>6</v>
+      </c>
+      <c r="H79" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="I79" s="2"/>
       <c r="J79" s="1"/>
       <c r="L79" s="1"/>
@@ -1253,7 +2272,16 @@
       <c r="N79" s="1"/>
       <c r="O79" s="2"/>
     </row>
-    <row r="80" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D80" s="1"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="1">
+        <v>6</v>
+      </c>
+      <c r="H80" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I80" s="2"/>
       <c r="J80" s="1"/>
       <c r="L80" s="1"/>
@@ -1261,7 +2289,19 @@
       <c r="N80" s="1"/>
       <c r="O80" s="2"/>
     </row>
-    <row r="81" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>40</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="4"/>
+      <c r="F81">
+        <v>5</v>
+      </c>
+      <c r="H81" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I81" s="2"/>
       <c r="J81" s="1"/>
       <c r="L81" s="1"/>
@@ -1269,7 +2309,16 @@
       <c r="N81" s="1"/>
       <c r="O81" s="2"/>
     </row>
-    <row r="82" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D82" s="1"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="1">
+        <v>5</v>
+      </c>
+      <c r="H82" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I82" s="2"/>
       <c r="J82" s="1"/>
       <c r="L82" s="1"/>
@@ -1277,7 +2326,20 @@
       <c r="N82" s="1"/>
       <c r="O82" s="2"/>
     </row>
-    <row r="83" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D83" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" s="4">
+        <v>1</v>
+      </c>
+      <c r="F83" s="1">
+        <v>5</v>
+      </c>
+      <c r="H83" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="I83" s="2"/>
       <c r="J83" s="1"/>
       <c r="L83" s="1"/>
@@ -1285,7 +2347,16 @@
       <c r="N83" s="1"/>
       <c r="O83" s="2"/>
     </row>
-    <row r="84" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D84" s="1"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="1">
+        <v>5</v>
+      </c>
+      <c r="H84" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I84" s="2"/>
       <c r="J84" s="1"/>
       <c r="L84" s="1"/>
@@ -1293,7 +2364,19 @@
       <c r="N84" s="1"/>
       <c r="O84" s="2"/>
     </row>
-    <row r="85" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>41</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="4"/>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="H85" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I85" s="2"/>
       <c r="J85" s="1"/>
       <c r="L85" s="1"/>
@@ -1301,7 +2384,16 @@
       <c r="N85" s="1"/>
       <c r="O85" s="2"/>
     </row>
-    <row r="86" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D86" s="1"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="1">
+        <v>0</v>
+      </c>
+      <c r="H86" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I86" s="2"/>
       <c r="J86" s="1"/>
       <c r="L86" s="1"/>
@@ -1309,7 +2401,20 @@
       <c r="N86" s="1"/>
       <c r="O86" s="2"/>
     </row>
-    <row r="87" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D87" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" s="4">
+        <v>1</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0</v>
+      </c>
+      <c r="H87" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I87" s="2"/>
       <c r="J87" s="1"/>
       <c r="L87" s="1"/>
@@ -1317,7 +2422,16 @@
       <c r="N87" s="1"/>
       <c r="O87" s="2"/>
     </row>
-    <row r="88" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D88" s="1"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="1">
+        <v>0</v>
+      </c>
+      <c r="H88" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I88" s="2"/>
       <c r="J88" s="1"/>
       <c r="L88" s="1"/>
@@ -1325,7 +2439,19 @@
       <c r="N88" s="1"/>
       <c r="O88" s="2"/>
     </row>
-    <row r="89" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>42</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="4"/>
+      <c r="F89">
+        <v>4</v>
+      </c>
+      <c r="H89" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I89" s="2"/>
       <c r="J89" s="1"/>
       <c r="L89" s="1"/>
@@ -1333,7 +2459,16 @@
       <c r="N89" s="1"/>
       <c r="O89" s="2"/>
     </row>
-    <row r="90" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D90" s="1"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="1">
+        <v>4</v>
+      </c>
+      <c r="H90" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I90" s="2"/>
       <c r="J90" s="1"/>
       <c r="L90" s="1"/>
@@ -1341,7 +2476,20 @@
       <c r="N90" s="1"/>
       <c r="O90" s="2"/>
     </row>
-    <row r="91" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D91" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91" s="4">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="F91" s="1">
+        <v>4</v>
+      </c>
+      <c r="H91" s="1">
+        <f t="shared" si="1"/>
+        <v>3.7480000000000002</v>
+      </c>
       <c r="I91" s="2"/>
       <c r="J91" s="1"/>
       <c r="L91" s="1"/>
@@ -1349,7 +2497,20 @@
       <c r="N91" s="1"/>
       <c r="O91" s="2"/>
     </row>
-    <row r="92" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D92" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E92" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="F92" s="1">
+        <v>4</v>
+      </c>
+      <c r="H92" s="1">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
+      </c>
       <c r="I92" s="2"/>
       <c r="J92" s="1"/>
       <c r="L92" s="1"/>
@@ -1357,7 +2518,19 @@
       <c r="N92" s="1"/>
       <c r="O92" s="2"/>
     </row>
-    <row r="93" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>43</v>
+      </c>
+      <c r="D93" s="1"/>
+      <c r="E93" s="4"/>
+      <c r="F93">
+        <v>18</v>
+      </c>
+      <c r="H93" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I93" s="2"/>
       <c r="J93" s="1"/>
       <c r="L93" s="1"/>
@@ -1365,7 +2538,16 @@
       <c r="N93" s="1"/>
       <c r="O93" s="2"/>
     </row>
-    <row r="94" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D94" s="1"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="1">
+        <v>18</v>
+      </c>
+      <c r="H94" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I94" s="2"/>
       <c r="J94" s="1"/>
       <c r="L94" s="1"/>
@@ -1373,7 +2555,20 @@
       <c r="N94" s="1"/>
       <c r="O94" s="2"/>
     </row>
-    <row r="95" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D95" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95" s="4">
+        <v>1</v>
+      </c>
+      <c r="F95" s="1">
+        <v>18</v>
+      </c>
+      <c r="H95" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
       <c r="I95" s="2"/>
       <c r="J95" s="1"/>
       <c r="L95" s="1"/>
@@ -1381,7 +2576,16 @@
       <c r="N95" s="1"/>
       <c r="O95" s="2"/>
     </row>
-    <row r="96" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D96" s="1"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="1">
+        <v>18</v>
+      </c>
+      <c r="H96" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I96" s="2"/>
       <c r="J96" s="1"/>
       <c r="L96" s="1"/>
@@ -1389,7 +2593,19 @@
       <c r="N96" s="1"/>
       <c r="O96" s="2"/>
     </row>
-    <row r="97" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>44</v>
+      </c>
+      <c r="D97" s="1"/>
+      <c r="E97" s="4"/>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="H97" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I97" s="2"/>
       <c r="J97" s="1"/>
       <c r="L97" s="1"/>
@@ -1397,7 +2613,16 @@
       <c r="N97" s="1"/>
       <c r="O97" s="2"/>
     </row>
-    <row r="98" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D98" s="1"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="1">
+        <v>0</v>
+      </c>
+      <c r="H98" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I98" s="2"/>
       <c r="J98" s="1"/>
       <c r="L98" s="1"/>
@@ -1405,7 +2630,19 @@
       <c r="N98" s="1"/>
       <c r="O98" s="2"/>
     </row>
-    <row r="99" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>45</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="E99" s="4"/>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="H99" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I99" s="2"/>
       <c r="J99" s="1"/>
       <c r="L99" s="1"/>
@@ -1413,7 +2650,16 @@
       <c r="N99" s="1"/>
       <c r="O99" s="2"/>
     </row>
-    <row r="100" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D100" s="1"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="1">
+        <v>1</v>
+      </c>
+      <c r="H100" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I100" s="2"/>
       <c r="J100" s="1"/>
       <c r="L100" s="1"/>
@@ -1421,7 +2667,20 @@
       <c r="N100" s="1"/>
       <c r="O100" s="2"/>
     </row>
-    <row r="101" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D101" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E101" s="4">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="F101" s="1">
+        <v>1</v>
+      </c>
+      <c r="H101" s="1">
+        <f t="shared" si="1"/>
+        <v>0.91700000000000004</v>
+      </c>
       <c r="I101" s="2"/>
       <c r="J101" s="1"/>
       <c r="L101" s="1"/>
@@ -1429,7 +2688,20 @@
       <c r="N101" s="1"/>
       <c r="O101" s="2"/>
     </row>
-    <row r="102" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D102" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E102" s="4">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="F102" s="1">
+        <v>1</v>
+      </c>
+      <c r="H102" s="1">
+        <f t="shared" si="1"/>
+        <v>8.2000000000000003E-2</v>
+      </c>
       <c r="I102" s="2"/>
       <c r="J102" s="1"/>
       <c r="L102" s="1"/>
@@ -1437,7 +2709,16 @@
       <c r="N102" s="1"/>
       <c r="O102" s="2"/>
     </row>
-    <row r="103" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D103" s="1"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="1">
+        <v>1</v>
+      </c>
+      <c r="H103" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I103" s="2"/>
       <c r="J103" s="1"/>
       <c r="L103" s="1"/>
@@ -1445,7 +2726,19 @@
       <c r="N103" s="1"/>
       <c r="O103" s="2"/>
     </row>
-    <row r="104" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>46</v>
+      </c>
+      <c r="D104" s="1"/>
+      <c r="E104" s="4"/>
+      <c r="F104">
+        <v>7</v>
+      </c>
+      <c r="H104" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I104" s="2"/>
       <c r="J104" s="1"/>
       <c r="L104" s="1"/>
@@ -1453,7 +2746,16 @@
       <c r="N104" s="1"/>
       <c r="O104" s="2"/>
     </row>
-    <row r="105" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D105" s="1"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="1">
+        <v>7</v>
+      </c>
+      <c r="H105" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I105" s="2"/>
       <c r="J105" s="1"/>
       <c r="L105" s="1"/>
@@ -1461,7 +2763,20 @@
       <c r="N105" s="1"/>
       <c r="O105" s="2"/>
     </row>
-    <row r="106" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D106" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E106" s="4">
+        <v>1</v>
+      </c>
+      <c r="F106" s="1">
+        <v>7</v>
+      </c>
+      <c r="H106" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="I106" s="2"/>
       <c r="J106" s="1"/>
       <c r="L106" s="1"/>
@@ -1469,7 +2784,16 @@
       <c r="N106" s="1"/>
       <c r="O106" s="2"/>
     </row>
-    <row r="107" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D107" s="1"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="1">
+        <v>7</v>
+      </c>
+      <c r="H107" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I107" s="2"/>
       <c r="J107" s="1"/>
       <c r="L107" s="1"/>
@@ -1477,7 +2801,19 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>47</v>
+      </c>
+      <c r="D108" s="1"/>
+      <c r="E108" s="4"/>
+      <c r="F108">
+        <v>11</v>
+      </c>
+      <c r="H108" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I108" s="2"/>
       <c r="J108" s="1"/>
       <c r="L108" s="1"/>
@@ -1485,7 +2821,16 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D109" s="1"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="1">
+        <v>11</v>
+      </c>
+      <c r="H109" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I109" s="2"/>
       <c r="J109" s="1"/>
       <c r="L109" s="1"/>
@@ -1493,7 +2838,20 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D110" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E110" s="4">
+        <v>1</v>
+      </c>
+      <c r="F110" s="1">
+        <v>11</v>
+      </c>
+      <c r="H110" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
       <c r="I110" s="2"/>
       <c r="J110" s="1"/>
       <c r="L110" s="1"/>
@@ -1501,7 +2859,16 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D111" s="1"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="1">
+        <v>11</v>
+      </c>
+      <c r="H111" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I111" s="2"/>
       <c r="J111" s="1"/>
       <c r="L111" s="1"/>
@@ -1509,7 +2876,19 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>48</v>
+      </c>
+      <c r="D112" s="1"/>
+      <c r="E112" s="4"/>
+      <c r="F112">
+        <v>6</v>
+      </c>
+      <c r="H112" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I112" s="2"/>
       <c r="J112" s="1"/>
       <c r="L112" s="1"/>
@@ -1517,244 +2896,572 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D113" s="1"/>
+      <c r="E113" s="4"/>
+      <c r="H113" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D114" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E114" s="4">
+        <v>1</v>
+      </c>
+      <c r="H114" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D115" s="1"/>
+      <c r="E115" s="4"/>
+      <c r="H115" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>49</v>
+      </c>
+      <c r="D116" s="1"/>
+      <c r="E116" s="4"/>
+      <c r="F116">
+        <v>2</v>
+      </c>
+      <c r="H116" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D117" s="1"/>
+      <c r="E117" s="4"/>
+      <c r="H117" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D118" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E118" s="4">
+        <v>1</v>
+      </c>
+      <c r="H118" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I118" s="2"/>
     </row>
-    <row r="119" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D119" s="1"/>
+      <c r="E119" s="4"/>
+      <c r="H119" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>50</v>
+      </c>
+      <c r="D120" s="1"/>
+      <c r="E120" s="4"/>
+      <c r="F120">
+        <v>7</v>
+      </c>
+      <c r="H120" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I120" s="2"/>
     </row>
-    <row r="121" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D121" s="1"/>
+      <c r="E121" s="4"/>
+      <c r="H121" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I121" s="2"/>
     </row>
-    <row r="122" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D122" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E122" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="H122" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I122" s="2"/>
     </row>
-    <row r="123" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D123" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E123" s="4">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="H123" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I123" s="2"/>
     </row>
-    <row r="124" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D124" s="1"/>
+      <c r="E124" s="4"/>
+      <c r="H124" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I124" s="2"/>
     </row>
-    <row r="125" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>51</v>
+      </c>
+      <c r="D125" s="1"/>
+      <c r="E125" s="4"/>
+      <c r="F125">
+        <v>51</v>
+      </c>
+      <c r="H125" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D126" s="1"/>
+      <c r="E126" s="4"/>
+      <c r="H126" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I126" s="2"/>
     </row>
-    <row r="127" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D127" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E127" s="4">
+        <v>1</v>
+      </c>
+      <c r="H127" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I127" s="2"/>
     </row>
-    <row r="128" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D128" s="1"/>
+      <c r="E128" s="4"/>
+      <c r="H128" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I128" s="2"/>
     </row>
-    <row r="129" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
+        <v>52</v>
+      </c>
+      <c r="D129" s="1"/>
+      <c r="E129" s="4"/>
+      <c r="F129">
+        <v>8</v>
+      </c>
+      <c r="H129" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I129" s="2"/>
     </row>
-    <row r="130" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D130" s="1"/>
+      <c r="E130" s="4"/>
+      <c r="H130" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I130" s="2"/>
     </row>
-    <row r="131" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D131" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E131" s="4">
+        <v>1</v>
+      </c>
+      <c r="H131" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I131" s="2"/>
     </row>
-    <row r="132" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D132" s="1"/>
+      <c r="E132" s="4"/>
+      <c r="H132" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I132" s="2"/>
     </row>
-    <row r="133" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>53</v>
+      </c>
+      <c r="D133" s="1"/>
+      <c r="E133" s="4"/>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="H133" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I133" s="2"/>
     </row>
-    <row r="134" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D134" s="1"/>
+      <c r="E134" s="4"/>
+      <c r="H134" s="1" t="str">
+        <f t="shared" ref="H134:H138" si="2">IF($E134*$F134=0,"",$E134*$F134)</f>
+        <v/>
+      </c>
       <c r="I134" s="2"/>
     </row>
-    <row r="135" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>54</v>
+      </c>
+      <c r="D135" s="1"/>
+      <c r="E135" s="4"/>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="H135" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="I135" s="2"/>
     </row>
-    <row r="136" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D136" s="1"/>
+      <c r="E136" s="4"/>
+      <c r="H136" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="I136" s="2"/>
     </row>
-    <row r="137" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D137" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E137" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="H137" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="I137" s="2"/>
     </row>
-    <row r="138" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D138" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E138" s="4">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H138" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="I138" s="2"/>
     </row>
-    <row r="139" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D139" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E139" s="4"/>
       <c r="I139" s="2"/>
     </row>
-    <row r="140" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D140" s="1"/>
+      <c r="E140" s="4"/>
       <c r="I140" s="2"/>
     </row>
-    <row r="141" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D141" s="1"/>
+      <c r="E141" s="4"/>
       <c r="I141" s="2"/>
     </row>
-    <row r="142" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D142" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E142" s="4"/>
       <c r="I142" s="2"/>
     </row>
-    <row r="143" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D143" s="1"/>
+      <c r="E143" s="4"/>
       <c r="I143" s="2"/>
     </row>
-    <row r="144" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D144" s="1"/>
+      <c r="E144" s="4"/>
       <c r="I144" s="2"/>
     </row>
-    <row r="145" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D145" s="1"/>
+      <c r="E145" s="4"/>
       <c r="I145" s="2"/>
     </row>
-    <row r="146" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D146" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E146" s="4"/>
       <c r="I146" s="2"/>
     </row>
-    <row r="147" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D147" s="1"/>
+      <c r="E147" s="4"/>
       <c r="I147" s="2"/>
     </row>
-    <row r="148" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D148" s="1"/>
+      <c r="E148" s="4"/>
       <c r="I148" s="2"/>
     </row>
-    <row r="149" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D149" s="1"/>
+      <c r="E149" s="4"/>
       <c r="I149" s="2"/>
     </row>
-    <row r="150" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D150" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E150" s="4"/>
       <c r="I150" s="2"/>
     </row>
-    <row r="151" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D151" s="1"/>
+      <c r="E151" s="4"/>
       <c r="I151" s="2"/>
     </row>
-    <row r="152" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D152" s="1"/>
+      <c r="E152" s="4"/>
       <c r="I152" s="2"/>
     </row>
-    <row r="153" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D153" s="1"/>
+      <c r="E153" s="4"/>
       <c r="I153" s="2"/>
     </row>
-    <row r="154" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D154" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E154" s="4"/>
       <c r="I154" s="2"/>
     </row>
-    <row r="155" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D155" s="1"/>
+      <c r="E155" s="4"/>
       <c r="I155" s="2"/>
     </row>
-    <row r="156" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D156" s="1"/>
+      <c r="E156" s="4"/>
       <c r="I156" s="2"/>
     </row>
-    <row r="157" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D157" s="1"/>
+      <c r="E157" s="4"/>
       <c r="I157" s="2"/>
     </row>
-    <row r="158" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D158" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E158" s="4"/>
       <c r="I158" s="2"/>
     </row>
-    <row r="159" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D159" s="1"/>
+      <c r="E159" s="4"/>
       <c r="I159" s="2"/>
     </row>
-    <row r="160" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D160" s="1"/>
+      <c r="E160" s="4"/>
       <c r="I160" s="2"/>
     </row>
-    <row r="161" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D161" s="1"/>
+      <c r="E161" s="4"/>
       <c r="I161" s="2"/>
     </row>
-    <row r="162" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D162" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E162" s="4"/>
       <c r="I162" s="2"/>
     </row>
-    <row r="163" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D163" s="1"/>
+      <c r="E163" s="4"/>
       <c r="I163" s="2"/>
     </row>
-    <row r="164" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D164" s="1"/>
+      <c r="E164" s="4"/>
       <c r="I164" s="2"/>
     </row>
-    <row r="165" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D165" s="1"/>
+      <c r="E165" s="4"/>
       <c r="I165" s="2"/>
     </row>
-    <row r="166" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D166" s="1"/>
+      <c r="E166" s="4"/>
       <c r="I166" s="2"/>
     </row>
-    <row r="167" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D167" s="1"/>
+      <c r="E167" s="4"/>
       <c r="I167" s="2"/>
     </row>
-    <row r="168" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D168" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E168" s="4"/>
       <c r="I168" s="2"/>
     </row>
-    <row r="169" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D169" s="1"/>
+      <c r="E169" s="4"/>
       <c r="I169" s="2"/>
     </row>
-    <row r="170" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D170" s="1"/>
+      <c r="E170" s="4"/>
       <c r="I170" s="2"/>
     </row>
-    <row r="171" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D171" s="1"/>
+      <c r="E171" s="4"/>
       <c r="I171" s="2"/>
     </row>
-    <row r="172" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D172" s="1"/>
+      <c r="E172" s="4"/>
       <c r="I172" s="2"/>
     </row>
-    <row r="173" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D173" s="1"/>
       <c r="I173" s="2"/>
     </row>
-    <row r="174" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D174" s="1"/>
       <c r="I174" s="2"/>
     </row>
-    <row r="175" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D175" s="1"/>
       <c r="I175" s="2"/>
     </row>
-    <row r="176" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D176" s="1"/>
       <c r="I176" s="2"/>
     </row>
-    <row r="177" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D177" s="1"/>
       <c r="I177" s="2"/>
     </row>
-    <row r="178" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D178" s="1"/>
       <c r="I178" s="2"/>
     </row>
-    <row r="179" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D179" s="1"/>
       <c r="I179" s="2"/>
     </row>
-    <row r="180" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D180" s="1"/>
       <c r="I180" s="2"/>
     </row>
-    <row r="181" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D181" s="1"/>
       <c r="I181" s="2"/>
     </row>
-    <row r="182" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D182" s="1"/>
       <c r="I182" s="2"/>
     </row>
-    <row r="183" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D183" s="1"/>
       <c r="I183" s="2"/>
     </row>
-    <row r="184" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D184" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="I184" s="2"/>
     </row>
-    <row r="185" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D185" s="1"/>
       <c r="I185" s="2"/>
     </row>
-    <row r="186" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D186" s="1"/>
       <c r="I186" s="2"/>
     </row>
-    <row r="187" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D187" s="1"/>
       <c r="I187" s="2"/>
     </row>
-    <row r="188" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D188" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="I188" s="2"/>
     </row>
-    <row r="189" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:9" x14ac:dyDescent="0.25">
       <c r="I189" s="2"/>
     </row>
-    <row r="190" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:9" x14ac:dyDescent="0.25">
       <c r="I190" s="2"/>
     </row>
-    <row r="191" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:9" x14ac:dyDescent="0.25">
       <c r="I191" s="2"/>
     </row>
-    <row r="192" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:9" x14ac:dyDescent="0.25">
       <c r="I192" s="2"/>
     </row>
     <row r="193" spans="9:9" x14ac:dyDescent="0.25">
@@ -5034,12 +6741,2350 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:BC189"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="9" max="9" width="5.140625" customWidth="1"/>
+    <col min="10" max="10" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" customWidth="1"/>
+    <col min="55" max="55" width="41.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>37</v>
+      </c>
+      <c r="K2" s="1">
+        <v>4</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>-11</v>
+      </c>
+      <c r="O2" s="1">
+        <v>8</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>12</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>12</v>
+      </c>
+      <c r="X2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>8</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>24</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>11</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>6</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>18</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>7</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>11</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>7</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>51</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>8</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <f>HLOOKUP(A2,F1:BC2,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <f>HLOOKUP(A6,F1:BC2,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <f>HLOOKUP(A10,F1:BB2,2,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="D13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1">
+        <f>HLOOKUP(A14,F1:BC2,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="D15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="1">
+        <f>HLOOKUP(A18,E1:BB2,2,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="1">
+        <f>HLOOKUP(A22,E1:BB2,2,FALSE)</f>
+        <v>-11</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="1">
+        <f>HLOOKUP(A26,E1:BB2,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="1">
+        <f>HLOOKUP(A30,E1:BB2,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="1">
+        <f>HLOOKUP(A34,E1:BB2,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="1">
+        <f>HLOOKUP(A38,E1:BB2,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="3">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="1">
+        <f>HLOOKUP(A43,E1:BB2,2,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="3">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="1">
+        <f>HLOOKUP(A47,E1:BB2,2,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="3">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="3">
+        <v>0.442</v>
+      </c>
+      <c r="C50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="1">
+        <f>HLOOKUP(A52,E1:BB2,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="3">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="1">
+        <f>HLOOKUP(A56,E1:BB2,2,FALSE)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="3">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="1">
+        <f>HLOOKUP(A60,E1:BB2,2,FALSE)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="3">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" s="1">
+        <f>HLOOKUP(A64,E1:BB2,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="3">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68" s="1">
+        <f>HLOOKUP(A68,E$1:BB$2,2,FALSE)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="3">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72" s="1">
+        <f t="shared" ref="D69:D132" si="0">HLOOKUP(A72,E$1:BB$2,2,FALSE)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="3">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="C74" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="3">
+        <v>0.113</v>
+      </c>
+      <c r="C75" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>39</v>
+      </c>
+      <c r="D77" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="3">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>40</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="3">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>41</v>
+      </c>
+      <c r="D85" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="3">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>42</v>
+      </c>
+      <c r="D89" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="3">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="C91" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>43</v>
+      </c>
+      <c r="D93" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="3">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>44</v>
+      </c>
+      <c r="D97" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>45</v>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B101" s="3">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="C101" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="3">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="C102" t="s">
+        <v>32</v>
+      </c>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>46</v>
+      </c>
+      <c r="D104" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B106" s="3">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>47</v>
+      </c>
+      <c r="D108" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B110" s="3">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>19</v>
+      </c>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>48</v>
+      </c>
+      <c r="D112" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="3">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>49</v>
+      </c>
+      <c r="D116" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B118" s="3">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>19</v>
+      </c>
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>50</v>
+      </c>
+      <c r="D120" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B122" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="C122" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B123" s="3">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="C123" t="s">
+        <v>29</v>
+      </c>
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>51</v>
+      </c>
+      <c r="D125" s="1">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D126" s="1"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B127" s="3">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
+        <v>19</v>
+      </c>
+      <c r="D127" s="1"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D128" s="1"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>52</v>
+      </c>
+      <c r="D129" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B131" s="3">
+        <v>1</v>
+      </c>
+      <c r="C131" t="s">
+        <v>19</v>
+      </c>
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>53</v>
+      </c>
+      <c r="D133" s="1">
+        <f t="shared" ref="D133:D189" si="1">HLOOKUP(A133,E$1:BB$2,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>54</v>
+      </c>
+      <c r="D135" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D136" s="1"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B137" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="C137" t="s">
+        <v>19</v>
+      </c>
+      <c r="D137" s="1"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B138" s="3">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C138" t="s">
+        <v>29</v>
+      </c>
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>16</v>
+      </c>
+      <c r="B139" t="s">
+        <v>55</v>
+      </c>
+      <c r="C139" t="s">
+        <v>56</v>
+      </c>
+      <c r="D139" s="1"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>57</v>
+      </c>
+      <c r="D140" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B142" s="3">
+        <v>1</v>
+      </c>
+      <c r="C142" t="s">
+        <v>29</v>
+      </c>
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>58</v>
+      </c>
+      <c r="D144" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B146" s="3">
+        <v>1</v>
+      </c>
+      <c r="C146" t="s">
+        <v>19</v>
+      </c>
+      <c r="D146" s="1"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D147" s="1"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>59</v>
+      </c>
+      <c r="D148" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D149" s="1"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B150" s="3">
+        <v>1</v>
+      </c>
+      <c r="C150" t="s">
+        <v>19</v>
+      </c>
+      <c r="D150" s="1"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D151" s="1"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>60</v>
+      </c>
+      <c r="D152" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D153" s="1"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B154" s="3">
+        <v>1</v>
+      </c>
+      <c r="C154" t="s">
+        <v>19</v>
+      </c>
+      <c r="D154" s="1"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D155" s="1"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>61</v>
+      </c>
+      <c r="D156" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D157" s="1"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B158" s="3">
+        <v>1</v>
+      </c>
+      <c r="C158" t="s">
+        <v>19</v>
+      </c>
+      <c r="D158" s="1"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D159" s="1"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>62</v>
+      </c>
+      <c r="D160" s="1"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D161" s="1"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B162" s="3">
+        <v>1</v>
+      </c>
+      <c r="C162" t="s">
+        <v>19</v>
+      </c>
+      <c r="D162" s="1"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>16</v>
+      </c>
+      <c r="B163" t="s">
+        <v>63</v>
+      </c>
+      <c r="D163" s="1"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>64</v>
+      </c>
+      <c r="D164" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D165" s="1"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>65</v>
+      </c>
+      <c r="D166" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D167" s="1"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B168" s="3">
+        <v>1</v>
+      </c>
+      <c r="C168" t="s">
+        <v>29</v>
+      </c>
+      <c r="D168" s="1"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D169" s="1"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>66</v>
+      </c>
+      <c r="D170" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D171" s="1"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>67</v>
+      </c>
+      <c r="D172" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D173" s="1"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D175" s="1"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>69</v>
+      </c>
+      <c r="D176" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D177" s="1"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>70</v>
+      </c>
+      <c r="D178" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D179" s="1"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>71</v>
+      </c>
+      <c r="D180" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D181" s="1"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>72</v>
+      </c>
+      <c r="D182" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D183" s="1"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B184" s="3">
+        <v>1</v>
+      </c>
+      <c r="C184" t="s">
+        <v>73</v>
+      </c>
+      <c r="D184" s="1"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D185" s="1"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>74</v>
+      </c>
+      <c r="D186" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D187" s="1"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B188" s="3">
+        <v>1</v>
+      </c>
+      <c r="C188" t="s">
+        <v>29</v>
+      </c>
+      <c r="D188" s="1"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D189" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M187"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>-11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24">
+        <v>-1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="G26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="G29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>75</v>
+      </c>
+      <c r="H32" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H35" t="s">
+        <v>45</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>75</v>
+      </c>
+      <c r="H36" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>75</v>
+      </c>
+      <c r="H37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="G38" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>75</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="G40" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" t="s">
+        <v>48</v>
+      </c>
+      <c r="I40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="G41" t="s">
+        <v>75</v>
+      </c>
+      <c r="H41" t="s">
+        <v>49</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>7</v>
+      </c>
+      <c r="G42" t="s">
+        <v>75</v>
+      </c>
+      <c r="H42" t="s">
+        <v>50</v>
+      </c>
+      <c r="I42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>51</v>
+      </c>
+      <c r="G43" t="s">
+        <v>75</v>
+      </c>
+      <c r="H43" t="s">
+        <v>51</v>
+      </c>
+      <c r="I43">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="G44" t="s">
+        <v>75</v>
+      </c>
+      <c r="H44" t="s">
+        <v>52</v>
+      </c>
+      <c r="I44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G45" t="s">
+        <v>75</v>
+      </c>
+      <c r="H45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>75</v>
+      </c>
+      <c r="H46" t="s">
+        <v>54</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47">
+        <v>-1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" t="s">
+        <v>59</v>
+      </c>
+      <c r="I47">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>75</v>
+      </c>
+      <c r="H48" t="s">
+        <v>60</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
+        <v>75</v>
+      </c>
+      <c r="H49" t="s">
+        <v>61</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>75</v>
+      </c>
+      <c r="H50" t="s">
+        <v>62</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Feb_2008.xlsx
+++ b/Feb_2008.xlsx
@@ -14,12 +14,14 @@
   <sheets>
     <sheet name="Formatted Data" sheetId="1" r:id="rId1"/>
     <sheet name="RAW" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabulation Manipulation Page" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Formatted Data'!$J$2:$J$29</definedName>
     <definedName name="Feb_2008" localSheetId="1">RAW!$A$1:$C$188</definedName>
     <definedName name="Feb_2008_LOC" localSheetId="1">RAW!$I$1:$L$50</definedName>
-    <definedName name="Feb_2008_LOC" localSheetId="2">Sheet1!$G$1:$J$50</definedName>
+    <definedName name="Feb_2008_LOC" localSheetId="2">'Tabulation Manipulation Page'!$G$1:$J$50</definedName>
+    <definedName name="Feb_2008_LOC_1" localSheetId="1">RAW!$F$4:$I$53</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -61,11 +63,21 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="4" name="Feb_2008_LOC2" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\User\Documents\seng403_New\Feb_2008_LOC.txt" comma="1" delimiter=":">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="80">
   <si>
     <t>GHTorrentName</t>
   </si>
@@ -300,12 +312,18 @@
   <si>
     <t>N/A</t>
   </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Elliot Horowitz</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +337,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0A0101"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -348,12 +372,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,14 +398,18 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Feb_2008_LOC_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Feb_2008_LOC" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Feb_2008" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Feb_2008_LOC" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -649,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,12 +763,17 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
       <c r="H2" s="1">
         <v>0</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1" t="str">
+        <f>IF(D2="","",IF(COUNTIF($D2:D183,D2)=1,D2,""))</f>
+        <v/>
+      </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -752,14 +786,28 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <f>F3*E3</f>
+        <v>2</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1" t="str">
+        <f>IF(D97="","",IF(COUNTIF($D97:D283,D97)=1,D97,""))</f>
+        <v>grid/</v>
+      </c>
+      <c r="K3" s="1">
+        <f ca="1">SUMPRODUCT(SUMIF($D$1:$D$183,J3,$H$1:$H$83))</f>
+        <v>17.041999999999998</v>
+      </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -771,22 +819,27 @@
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <f>F4*E4</f>
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f t="shared" ref="H4:H64" si="0">IF($E4*$F4=0,"",$E4*$F4)</f>
+        <v/>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1" t="str">
+        <f>IF(D157="","",IF(COUNTIF($D157:D343,D157)=1,D157,""))</f>
+        <v>db/</v>
+      </c>
+      <c r="K4" s="1">
+        <f ca="1">SUMPRODUCT(SUMIF($D$1:$D$183,J4,$H$1:$H$83))</f>
+        <v>486.89499999999992</v>
+      </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -799,15 +852,28 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1"/>
-      <c r="H5" s="1" t="str">
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1">
         <f>IF($E5*$F5=0,"",$E5*$F5)</f>
-        <v/>
+        <v>13</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1" t="str">
+        <f>IF(D179="","",IF(COUNTIF($D179:D365,D179)=1,D179,""))</f>
+        <v>bin/</v>
+      </c>
+      <c r="K5" s="1">
+        <f ca="1">SUMPRODUCT(SUMIF($D$1:$D$183,J5,$H$1:$H$83))</f>
+        <v>15</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -820,17 +886,29 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <v>37</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-1</v>
+      </c>
       <c r="H6" s="1" t="str">
-        <f t="shared" ref="H6:H69" si="0">IF($E6*$F6=0,"",$E6*$F6)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="str">
+        <f>IF(D183="","",IF(COUNTIF($D183:D369,D183)=1,D183,""))</f>
+        <v>util/</v>
+      </c>
+      <c r="K6" s="1">
+        <f ca="1">SUMPRODUCT(SUMIF($D$1:$D$183,J6,$H$1:$H$83))</f>
+        <v>33.402000000000001</v>
+      </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -843,15 +921,24 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="1"/>
-      <c r="H7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>37</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="str">
+        <f>IF(D184="","",IF(COUNTIF($D184:D370,D184)=1,D184,""))</f>
+        <v/>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -864,21 +951,20 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <f>IF($E8*$F8=0,"",$E8*$F8)</f>
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="str">
+        <f>IF(D185="","",IF(COUNTIF($D185:D371,D185)=1,D185,""))</f>
+        <v/>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -890,16 +976,23 @@
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1">
+        <v>26</v>
+      </c>
       <c r="H9" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1" t="str">
+        <f>IF(D186="","",IF(COUNTIF($D186:D372,D186)=1,D186,""))</f>
+        <v/>
+      </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -911,23 +1004,21 @@
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="4"/>
       <c r="F10" s="1">
-        <v>37</v>
-      </c>
-      <c r="G10" s="1">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="H10" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1" t="str">
+        <f>IF(D187="","",IF(COUNTIF($D187:D373,D187)=1,D187,""))</f>
+        <v/>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -940,17 +1031,24 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="4"/>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
       <c r="F11" s="1">
-        <v>37</v>
-      </c>
-      <c r="H11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>26</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1" t="str">
+        <f>IF(D188="","",IF(COUNTIF($D188:D374,D188)=1,D188,""))</f>
+        <v/>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -960,24 +1058,20 @@
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="1">
-        <v>37</v>
-      </c>
-      <c r="H12" s="1">
-        <f t="shared" si="0"/>
-        <v>37</v>
+        <v>26</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1" t="str">
+        <f>IF(D189="","",IF(COUNTIF($D189:D375,D189)=1,D189,""))</f>
+        <v/>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -987,20 +1081,23 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="1">
-        <v>37</v>
+      <c r="F13">
+        <v>9</v>
       </c>
       <c r="H13" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1" t="str">
+        <f>IF(D190="","",IF(COUNTIF($D190:D376,D190)=1,D190,""))</f>
+        <v/>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1010,22 +1107,20 @@
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="4"/>
       <c r="F14" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H14" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1" t="str">
+        <f>IF(D191="","",IF(COUNTIF($D191:D377,D191)=1,D191,""))</f>
+        <v/>
+      </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -1035,20 +1130,24 @@
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="4"/>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
       <c r="F15" s="1">
-        <v>4</v>
-      </c>
-      <c r="H15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>9</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1" t="str">
+        <f>IF(D192="","",IF(COUNTIF($D192:D378,D192)=1,D192,""))</f>
+        <v/>
+      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1058,24 +1157,20 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="1">
-        <v>4</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="1"/>
+      <c r="J16" s="1" t="str">
+        <f>IF(D193="","",IF(COUNTIF($D193:D379,D193)=1,D193,""))</f>
+        <v/>
+      </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -1085,354 +1180,415 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="1">
-        <v>4</v>
+      <c r="F17">
+        <v>71</v>
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="1"/>
+      <c r="J17" s="1" t="str">
+        <f>IF(D194="","",IF(COUNTIF($D194:D380,D194)=1,D194,""))</f>
+        <v/>
+      </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="2"/>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="4"/>
-      <c r="F18">
-        <v>-1</v>
+      <c r="F18" s="1">
+        <v>71</v>
       </c>
       <c r="H18" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="1"/>
+      <c r="J18" s="1" t="str">
+        <f>IF(D195="","",IF(COUNTIF($D195:D381,D195)=1,D195,""))</f>
+        <v/>
+      </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D19" s="1"/>
-      <c r="E19" s="4"/>
+      <c r="D19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
       <c r="F19" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>71</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="0"/>
+        <v>71</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="1"/>
+      <c r="J19" s="1" t="str">
+        <f>IF(D196="","",IF(COUNTIF($D196:D382,D196)=1,D196,""))</f>
+        <v/>
+      </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>71</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="1"/>
+      <c r="J20" s="1" t="str">
+        <f>IF(D197="","",IF(COUNTIF($D197:D383,D197)=1,D197,""))</f>
+        <v/>
+      </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="2"/>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="1">
-        <v>-1</v>
+      <c r="F21">
+        <v>16</v>
       </c>
       <c r="H21" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="1"/>
+      <c r="J21" s="1" t="str">
+        <f>IF(D198="","",IF(COUNTIF($D198:D384,D198)=1,D198,""))</f>
+        <v/>
+      </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="4"/>
-      <c r="F22">
-        <v>-11</v>
+      <c r="F22" s="1">
+        <v>16</v>
       </c>
       <c r="H22" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="1"/>
+      <c r="J22" s="1" t="str">
+        <f>IF(D199="","",IF(COUNTIF($D199:D385,D199)=1,D199,""))</f>
+        <v/>
+      </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D23" s="1"/>
-      <c r="E23" s="4"/>
+      <c r="D23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
       <c r="F23" s="1">
-        <v>-11</v>
-      </c>
-      <c r="H23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>16</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="1"/>
+      <c r="J23" s="1" t="str">
+        <f>IF(D200="","",IF(COUNTIF($D200:D386,D200)=1,D200,""))</f>
+        <v/>
+      </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="2"/>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="4">
-        <v>1</v>
-      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="1">
-        <v>-11</v>
-      </c>
-      <c r="H24" s="1">
-        <f t="shared" si="0"/>
-        <v>-11</v>
+        <v>16</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="1"/>
+      <c r="J24" s="1" t="str">
+        <f>IF(D201="","",IF(COUNTIF($D201:D387,D201)=1,D201,""))</f>
+        <v/>
+      </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="1">
-        <v>-11</v>
+      <c r="F25">
+        <v>2</v>
       </c>
       <c r="H25" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="1"/>
+      <c r="J25" s="1" t="str">
+        <f>IF(D202="","",IF(COUNTIF($D202:D388,D202)=1,D202,""))</f>
+        <v/>
+      </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="2"/>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="4"/>
-      <c r="F26">
-        <v>8</v>
+      <c r="F26" s="1">
+        <v>2</v>
       </c>
       <c r="H26" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="1"/>
+      <c r="J26" s="1" t="str">
+        <f>IF(D203="","",IF(COUNTIF($D203:D389,D203)=1,D203,""))</f>
+        <v/>
+      </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="2"/>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D27" s="1"/>
-      <c r="E27" s="4"/>
+      <c r="D27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
       <c r="F27" s="1">
-        <v>8</v>
-      </c>
-      <c r="H27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>2</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="1"/>
+      <c r="J27" s="1" t="str">
+        <f>IF(D204="","",IF(COUNTIF($D204:D390,D204)=1,D204,""))</f>
+        <v/>
+      </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="4">
-        <v>1</v>
-      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="1">
-        <v>8</v>
-      </c>
-      <c r="H28" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="1"/>
+      <c r="J28" s="1" t="str">
+        <f>IF(D205="","",IF(COUNTIF($D205:D391,D205)=1,D205,""))</f>
+        <v/>
+      </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="2"/>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="1">
-        <v>8</v>
+      <c r="F29">
+        <v>1</v>
       </c>
       <c r="H29" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="1"/>
+      <c r="J29" s="1" t="str">
+        <f>IF(D206="","",IF(COUNTIF($D206:D392,D206)=1,D206,""))</f>
+        <v/>
+      </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="2"/>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="4"/>
-      <c r="F30">
-        <v>0</v>
+      <c r="F30" s="1">
+        <v>1</v>
       </c>
       <c r="H30" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="1"/>
+      <c r="J30" s="1" t="str">
+        <f>IF(D207="","",IF(COUNTIF($D207:D393,D207)=1,D207,""))</f>
+        <v/>
+      </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="2"/>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D31" s="1"/>
-      <c r="E31" s="4"/>
+      <c r="D31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
       <c r="F31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="1"/>
+      <c r="J31" s="1" t="str">
+        <f>IF(D208="","",IF(COUNTIF($D208:D394,D208)=1,D208,""))</f>
+        <v/>
+      </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="2"/>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="4">
-        <v>1</v>
-      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="1"/>
+      <c r="J32" s="1" t="str">
+        <f>IF(D209="","",IF(COUNTIF($D209:D395,D209)=1,D209,""))</f>
+        <v/>
+      </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="2"/>
     </row>
     <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="1">
-        <v>0</v>
+      <c r="F33">
+        <v>2</v>
       </c>
       <c r="H33" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="1"/>
+      <c r="J33" s="1" t="str">
+        <f>IF(D210="","",IF(COUNTIF($D210:D396,D210)=1,D210,""))</f>
+        <v/>
+      </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="2"/>
     </row>
     <row r="34" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="4"/>
-      <c r="F34">
-        <v>1</v>
+      <c r="F34" s="1">
+        <v>2</v>
       </c>
       <c r="H34" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="1"/>
+      <c r="J34" s="1" t="str">
+        <f>IF(D211="","",IF(COUNTIF($D211:D397,D211)=1,D211,""))</f>
+        <v/>
+      </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="2"/>
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D35" s="1"/>
-      <c r="E35" s="4"/>
+      <c r="D35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0.98199999999999998</v>
+      </c>
       <c r="F35" s="1">
-        <v>1</v>
-      </c>
-      <c r="H35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>2</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="0"/>
+        <v>1.964</v>
       </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="1"/>
+      <c r="J35" s="1" t="str">
+        <f>IF(D212="","",IF(COUNTIF($D212:D398,D212)=1,D212,""))</f>
+        <v/>
+      </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -1440,20 +1596,23 @@
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D36" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E36" s="4">
-        <v>1</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="1"/>
+      <c r="J36" s="1" t="str">
+        <f>IF(D213="","",IF(COUNTIF($D213:D399,D213)=1,D213,""))</f>
+        <v/>
+      </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -1463,14 +1622,17 @@
       <c r="D37" s="1"/>
       <c r="E37" s="4"/>
       <c r="F37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="1"/>
+      <c r="J37" s="5" t="str">
+        <f>IF(A214="","",IF(COUNTIF($D214:D392,D214)=1,D214,""))</f>
+        <v/>
+      </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -1478,19 +1640,22 @@
     </row>
     <row r="38" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="4"/>
       <c r="F38">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H38" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="1"/>
+      <c r="J38" s="5" t="str">
+        <f>IF(A215="","",IF(COUNTIF($D215:D393,D215)=1,D215,""))</f>
+        <v/>
+      </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -1500,14 +1665,17 @@
       <c r="D39" s="1"/>
       <c r="E39" s="4"/>
       <c r="F39" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H39" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="1"/>
+      <c r="J39" s="5" t="str">
+        <f>IF(A216="","",IF(COUNTIF($D216:D394,D216)=1,D216,""))</f>
+        <v/>
+      </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -1518,92 +1686,107 @@
         <v>19</v>
       </c>
       <c r="E40" s="4">
-        <v>0.98199999999999998</v>
+        <v>1</v>
       </c>
       <c r="F40" s="1">
-        <v>0</v>
-      </c>
-      <c r="H40" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>12</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="1"/>
+      <c r="J40" s="5" t="str">
+        <f>IF(A217="","",IF(COUNTIF($D217:D395,D217)=1,D217,""))</f>
+        <v/>
+      </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="2"/>
     </row>
     <row r="41" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D41" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" s="4">
-        <v>1.7000000000000001E-2</v>
-      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="4"/>
       <c r="F41" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H41" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I41" s="2"/>
-      <c r="J41" s="1"/>
+      <c r="J41" s="5" t="str">
+        <f>IF(A218="","",IF(COUNTIF($D218:D396,D218)=1,D218,""))</f>
+        <v/>
+      </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="2"/>
     </row>
     <row r="42" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
       <c r="D42" s="1"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="1">
-        <v>0</v>
+      <c r="F42">
+        <v>38</v>
       </c>
       <c r="H42" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I42" s="2"/>
-      <c r="J42" s="1"/>
+      <c r="J42" s="5" t="str">
+        <f>IF(A219="","",IF(COUNTIF($D219:D397,D219)=1,D219,""))</f>
+        <v/>
+      </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="2"/>
     </row>
     <row r="43" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>30</v>
-      </c>
       <c r="D43" s="1"/>
       <c r="E43" s="4"/>
-      <c r="F43">
-        <v>12</v>
+      <c r="F43" s="1">
+        <v>38</v>
       </c>
       <c r="H43" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I43" s="2"/>
-      <c r="J43" s="1"/>
+      <c r="J43" s="5" t="str">
+        <f>IF(A220="","",IF(COUNTIF($D220:D398,D220)=1,D220,""))</f>
+        <v/>
+      </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="2"/>
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D44" s="1"/>
-      <c r="E44" s="4"/>
+      <c r="D44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0.55700000000000005</v>
+      </c>
       <c r="F44" s="1">
-        <v>12</v>
-      </c>
-      <c r="H44" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>38</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="0"/>
+        <v>21.166</v>
       </c>
       <c r="I44" s="2"/>
-      <c r="J44" s="1"/>
+      <c r="J44" s="5" t="str">
+        <f>IF(A221="","",IF(COUNTIF($D221:D399,D221)=1,D221,""))</f>
+        <v/>
+      </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -1611,20 +1794,23 @@
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D45" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E45" s="4">
-        <v>1</v>
+        <v>0.442</v>
       </c>
       <c r="F45" s="1">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>16.795999999999999</v>
       </c>
       <c r="I45" s="2"/>
-      <c r="J45" s="1"/>
+      <c r="J45" s="5" t="str">
+        <f>IF(A222="","",IF(COUNTIF($D222:D400,D222)=1,D222,""))</f>
+        <v/>
+      </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -1634,14 +1820,17 @@
       <c r="D46" s="1"/>
       <c r="E46" s="4"/>
       <c r="F46" s="1">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="H46" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I46" s="2"/>
-      <c r="J46" s="1"/>
+      <c r="J46" s="1" t="str">
+        <f>IF(D223="","",IF(COUNTIF($D223:D409,D223)=1,D223,""))</f>
+        <v/>
+      </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -1649,19 +1838,22 @@
     </row>
     <row r="47" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="4"/>
       <c r="F47">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H47" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I47" s="2"/>
-      <c r="J47" s="1"/>
+      <c r="J47" s="1" t="str">
+        <f>IF(D224="","",IF(COUNTIF($D224:D410,D224)=1,D224,""))</f>
+        <v/>
+      </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -1671,14 +1863,17 @@
       <c r="D48" s="1"/>
       <c r="E48" s="4"/>
       <c r="F48" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H48" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I48" s="2"/>
-      <c r="J48" s="1"/>
+      <c r="J48" s="1" t="str">
+        <f>IF(D225="","",IF(COUNTIF($D225:D411,D225)=1,D225,""))</f>
+        <v/>
+      </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -1689,392 +1884,379 @@
         <v>19</v>
       </c>
       <c r="E49" s="4">
-        <v>0.55700000000000005</v>
+        <v>1</v>
       </c>
       <c r="F49" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H49" s="1">
         <f t="shared" si="0"/>
-        <v>6.6840000000000011</v>
+        <v>1</v>
       </c>
       <c r="I49" s="2"/>
-      <c r="J49" s="1"/>
+      <c r="J49" s="1" t="str">
+        <f>IF(D226="","",IF(COUNTIF($D226:D412,D226)=1,D226,""))</f>
+        <v/>
+      </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="2"/>
     </row>
     <row r="50" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D50" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="4">
-        <v>0.442</v>
-      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="4"/>
       <c r="F50" s="1">
-        <v>12</v>
-      </c>
-      <c r="H50" s="1">
-        <f t="shared" si="0"/>
-        <v>5.3040000000000003</v>
+        <v>1</v>
+      </c>
+      <c r="H50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="I50" s="2"/>
-      <c r="J50" s="1"/>
+      <c r="J50" s="1" t="str">
+        <f>IF(D227="","",IF(COUNTIF($D227:D413,D227)=1,D227,""))</f>
+        <v/>
+      </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="2"/>
     </row>
     <row r="51" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>34</v>
+      </c>
       <c r="D51" s="1"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="1">
-        <v>12</v>
+      <c r="F51">
+        <v>8</v>
       </c>
       <c r="H51" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I51" s="2"/>
-      <c r="J51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="2"/>
     </row>
     <row r="52" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
-        <v>33</v>
-      </c>
       <c r="D52" s="1"/>
       <c r="E52" s="4"/>
-      <c r="F52">
-        <v>1</v>
+      <c r="F52" s="1">
+        <v>8</v>
       </c>
       <c r="H52" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I52" s="2"/>
-      <c r="J52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="2"/>
     </row>
     <row r="53" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D53" s="1"/>
-      <c r="E53" s="4"/>
+      <c r="D53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="4">
+        <v>1</v>
+      </c>
       <c r="F53" s="1">
-        <v>1</v>
-      </c>
-      <c r="H53" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>8</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="I53" s="2"/>
-      <c r="J53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="2"/>
     </row>
     <row r="54" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D54" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" s="4">
-        <v>1</v>
-      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="4"/>
       <c r="F54" s="1">
-        <v>1</v>
-      </c>
-      <c r="H54" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="H54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="I54" s="2"/>
-      <c r="J54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="2"/>
     </row>
     <row r="55" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>35</v>
+      </c>
       <c r="D55" s="1"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="1">
-        <v>1</v>
+      <c r="F55">
+        <v>34</v>
       </c>
       <c r="H55" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I55" s="2"/>
-      <c r="J55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="2"/>
     </row>
     <row r="56" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
-        <v>34</v>
-      </c>
       <c r="D56" s="1"/>
       <c r="E56" s="4"/>
-      <c r="F56">
-        <v>8</v>
+      <c r="F56" s="1">
+        <v>34</v>
       </c>
       <c r="H56" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I56" s="2"/>
-      <c r="J56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="2"/>
     </row>
     <row r="57" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D57" s="1"/>
-      <c r="E57" s="4"/>
+      <c r="D57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="4">
+        <v>1</v>
+      </c>
       <c r="F57" s="1">
-        <v>8</v>
-      </c>
-      <c r="H57" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>34</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
       <c r="I57" s="2"/>
-      <c r="J57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="2"/>
     </row>
     <row r="58" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D58" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" s="4">
-        <v>1</v>
-      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="4"/>
       <c r="F58" s="1">
-        <v>8</v>
-      </c>
-      <c r="H58" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>34</v>
+      </c>
+      <c r="H58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="I58" s="2"/>
-      <c r="J58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="2"/>
     </row>
     <row r="59" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>36</v>
+      </c>
       <c r="D59" s="1"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="1">
-        <v>8</v>
+      <c r="F59">
+        <v>1</v>
       </c>
       <c r="H59" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I59" s="2"/>
-      <c r="J59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="2"/>
     </row>
     <row r="60" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
-        <v>35</v>
-      </c>
       <c r="D60" s="1"/>
       <c r="E60" s="4"/>
-      <c r="F60">
-        <v>24</v>
+      <c r="F60" s="1">
+        <v>1</v>
       </c>
       <c r="H60" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I60" s="2"/>
-      <c r="J60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="2"/>
     </row>
     <row r="61" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D61" s="1"/>
-      <c r="E61" s="4"/>
+      <c r="D61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1</v>
+      </c>
       <c r="F61" s="1">
-        <v>24</v>
-      </c>
-      <c r="H61" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="H61" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I61" s="2"/>
-      <c r="J61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="2"/>
     </row>
     <row r="62" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D62" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E62" s="4">
-        <v>1</v>
-      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="4"/>
       <c r="F62" s="1">
-        <v>24</v>
-      </c>
-      <c r="H62" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="H62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="I62" s="2"/>
-      <c r="J62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="2"/>
     </row>
     <row r="63" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>37</v>
+      </c>
       <c r="D63" s="1"/>
       <c r="E63" s="4"/>
-      <c r="F63" s="1">
-        <v>24</v>
+      <c r="F63">
+        <v>3</v>
       </c>
       <c r="H63" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I63" s="2"/>
-      <c r="J63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="2"/>
     </row>
     <row r="64" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
-        <v>36</v>
-      </c>
       <c r="D64" s="1"/>
       <c r="E64" s="4"/>
-      <c r="F64">
-        <v>1</v>
+      <c r="F64" s="1">
+        <v>3</v>
       </c>
       <c r="H64" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I64" s="2"/>
-      <c r="J64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="2"/>
     </row>
     <row r="65" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D65" s="1"/>
-      <c r="E65" s="4"/>
+      <c r="D65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="4">
+        <v>1</v>
+      </c>
       <c r="F65" s="1">
-        <v>1</v>
-      </c>
-      <c r="H65" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>3</v>
+      </c>
+      <c r="H65" s="1">
+        <f t="shared" ref="H65:H128" si="1">IF($E65*$F65=0,"",$E65*$F65)</f>
+        <v>3</v>
       </c>
       <c r="I65" s="2"/>
-      <c r="J65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="2"/>
     </row>
     <row r="66" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D66" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E66" s="4">
-        <v>1</v>
-      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="4"/>
       <c r="F66" s="1">
-        <v>1</v>
-      </c>
-      <c r="H66" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="H66" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="I66" s="2"/>
-      <c r="J66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="2"/>
     </row>
     <row r="67" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>38</v>
+      </c>
       <c r="D67" s="1"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="1">
-        <v>1</v>
+      <c r="F67">
+        <v>11</v>
       </c>
       <c r="H67" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I67" s="2"/>
-      <c r="J67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
       <c r="O67" s="2"/>
     </row>
     <row r="68" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
-        <v>37</v>
-      </c>
       <c r="D68" s="1"/>
       <c r="E68" s="4"/>
-      <c r="F68">
-        <v>-1</v>
+      <c r="F68" s="1">
+        <v>11</v>
       </c>
       <c r="H68" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I68" s="2"/>
-      <c r="J68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="2"/>
     </row>
     <row r="69" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D69" s="1"/>
-      <c r="E69" s="4"/>
+      <c r="D69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="4">
+        <v>0.88600000000000001</v>
+      </c>
       <c r="F69" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H69" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>11</v>
+      </c>
+      <c r="H69" s="1">
+        <f t="shared" si="1"/>
+        <v>9.7460000000000004</v>
       </c>
       <c r="I69" s="2"/>
-      <c r="J69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
@@ -2082,20 +2264,19 @@
     </row>
     <row r="70" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D70" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E70" s="4">
-        <v>1</v>
+        <v>0.113</v>
       </c>
       <c r="F70" s="1">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="H70" s="1">
-        <f t="shared" ref="H70:H133" si="1">IF($E70*$F70=0,"",$E70*$F70)</f>
-        <v>-1</v>
+        <f t="shared" si="1"/>
+        <v>1.2430000000000001</v>
       </c>
       <c r="I70" s="2"/>
-      <c r="J70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
@@ -2105,14 +2286,13 @@
       <c r="D71" s="1"/>
       <c r="E71" s="4"/>
       <c r="F71" s="1">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="H71" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I71" s="2"/>
-      <c r="J71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
@@ -2120,19 +2300,18 @@
     </row>
     <row r="72" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="4"/>
       <c r="F72">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H72" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I72" s="2"/>
-      <c r="J72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
@@ -2142,14 +2321,13 @@
       <c r="D73" s="1"/>
       <c r="E73" s="4"/>
       <c r="F73" s="1">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H73" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I73" s="2"/>
-      <c r="J73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
@@ -2160,242 +2338,229 @@
         <v>19</v>
       </c>
       <c r="E74" s="4">
-        <v>0.88600000000000001</v>
+        <v>1</v>
       </c>
       <c r="F74" s="1">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H74" s="1">
         <f t="shared" si="1"/>
-        <v>9.7460000000000004</v>
+        <v>26</v>
       </c>
       <c r="I74" s="2"/>
-      <c r="J74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
       <c r="O74" s="2"/>
     </row>
     <row r="75" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D75" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E75" s="4">
-        <v>0.113</v>
-      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="4"/>
       <c r="F75" s="1">
-        <v>11</v>
-      </c>
-      <c r="H75" s="1">
-        <f t="shared" si="1"/>
-        <v>1.2430000000000001</v>
+        <v>26</v>
+      </c>
+      <c r="H75" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="I75" s="2"/>
-      <c r="J75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="2"/>
     </row>
     <row r="76" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>40</v>
+      </c>
       <c r="D76" s="1"/>
       <c r="E76" s="4"/>
-      <c r="F76" s="1">
-        <v>11</v>
+      <c r="F76">
+        <v>5</v>
       </c>
       <c r="H76" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I76" s="2"/>
-      <c r="J76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
       <c r="O76" s="2"/>
     </row>
     <row r="77" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
-        <v>39</v>
-      </c>
       <c r="D77" s="1"/>
       <c r="E77" s="4"/>
-      <c r="F77">
-        <v>6</v>
+      <c r="F77" s="1">
+        <v>5</v>
       </c>
       <c r="H77" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I77" s="2"/>
-      <c r="J77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
       <c r="O77" s="2"/>
     </row>
     <row r="78" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D78" s="1"/>
-      <c r="E78" s="4"/>
+      <c r="D78" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" s="4">
+        <v>1</v>
+      </c>
       <c r="F78" s="1">
-        <v>6</v>
-      </c>
-      <c r="H78" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>5</v>
+      </c>
+      <c r="H78" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="I78" s="2"/>
-      <c r="J78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="2"/>
     </row>
     <row r="79" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D79" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E79" s="4">
-        <v>1</v>
-      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="4"/>
       <c r="F79" s="1">
-        <v>6</v>
-      </c>
-      <c r="H79" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="H79" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="I79" s="2"/>
-      <c r="J79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="2"/>
     </row>
     <row r="80" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>41</v>
+      </c>
       <c r="D80" s="1"/>
       <c r="E80" s="4"/>
-      <c r="F80" s="1">
-        <v>6</v>
+      <c r="F80">
+        <v>8</v>
       </c>
       <c r="H80" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I80" s="2"/>
-      <c r="J80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="2"/>
     </row>
     <row r="81" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C81" t="s">
-        <v>40</v>
-      </c>
       <c r="D81" s="1"/>
       <c r="E81" s="4"/>
-      <c r="F81">
-        <v>5</v>
+      <c r="F81" s="1">
+        <v>8</v>
       </c>
       <c r="H81" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I81" s="2"/>
-      <c r="J81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
       <c r="O81" s="2"/>
     </row>
     <row r="82" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D82" s="1"/>
-      <c r="E82" s="4"/>
+      <c r="D82" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" s="4">
+        <v>1</v>
+      </c>
       <c r="F82" s="1">
-        <v>5</v>
-      </c>
-      <c r="H82" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>8</v>
+      </c>
+      <c r="H82" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="I82" s="2"/>
-      <c r="J82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="2"/>
     </row>
     <row r="83" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D83" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E83" s="4">
-        <v>1</v>
-      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="4"/>
       <c r="F83" s="1">
-        <v>5</v>
-      </c>
-      <c r="H83" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="H83" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="I83" s="2"/>
-      <c r="J83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
       <c r="O83" s="2"/>
     </row>
     <row r="84" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>42</v>
+      </c>
       <c r="D84" s="1"/>
       <c r="E84" s="4"/>
-      <c r="F84" s="1">
-        <v>5</v>
+      <c r="F84">
+        <v>4</v>
       </c>
       <c r="H84" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I84" s="2"/>
-      <c r="J84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
       <c r="O84" s="2"/>
     </row>
     <row r="85" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C85" t="s">
-        <v>41</v>
-      </c>
       <c r="D85" s="1"/>
       <c r="E85" s="4"/>
-      <c r="F85">
-        <v>0</v>
+      <c r="F85" s="1">
+        <v>4</v>
       </c>
       <c r="H85" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I85" s="2"/>
-      <c r="J85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
       <c r="O85" s="2"/>
     </row>
     <row r="86" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D86" s="1"/>
-      <c r="E86" s="4"/>
+      <c r="D86" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" s="4">
+        <v>0.93700000000000006</v>
+      </c>
       <c r="F86" s="1">
-        <v>0</v>
-      </c>
-      <c r="H86" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>4</v>
+      </c>
+      <c r="H86" s="1">
+        <f t="shared" si="1"/>
+        <v>3.7480000000000002</v>
       </c>
       <c r="I86" s="2"/>
-      <c r="J86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
@@ -2403,211 +2568,200 @@
     </row>
     <row r="87" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D87" s="1" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="E87" s="4">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="F87" s="1">
-        <v>0</v>
-      </c>
-      <c r="H87" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>4</v>
+      </c>
+      <c r="H87" s="1">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
       </c>
       <c r="I87" s="2"/>
-      <c r="J87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
       <c r="O87" s="2"/>
     </row>
     <row r="88" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>43</v>
+      </c>
       <c r="D88" s="1"/>
       <c r="E88" s="4"/>
-      <c r="F88" s="1">
-        <v>0</v>
+      <c r="F88">
+        <v>22</v>
       </c>
       <c r="H88" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I88" s="2"/>
-      <c r="J88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
       <c r="O88" s="2"/>
     </row>
     <row r="89" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C89" t="s">
-        <v>42</v>
-      </c>
       <c r="D89" s="1"/>
       <c r="E89" s="4"/>
-      <c r="F89">
-        <v>4</v>
+      <c r="F89" s="1">
+        <v>22</v>
       </c>
       <c r="H89" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I89" s="2"/>
-      <c r="J89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
       <c r="O89" s="2"/>
     </row>
     <row r="90" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D90" s="1"/>
-      <c r="E90" s="4"/>
+      <c r="D90" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E90" s="4">
+        <v>1</v>
+      </c>
       <c r="F90" s="1">
-        <v>4</v>
-      </c>
-      <c r="H90" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>22</v>
+      </c>
+      <c r="H90" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="I90" s="2"/>
-      <c r="J90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
       <c r="O90" s="2"/>
     </row>
     <row r="91" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D91" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E91" s="4">
-        <v>0.93700000000000006</v>
-      </c>
+      <c r="D91" s="1"/>
+      <c r="E91" s="4"/>
       <c r="F91" s="1">
-        <v>4</v>
-      </c>
-      <c r="H91" s="1">
-        <f t="shared" si="1"/>
-        <v>3.7480000000000002</v>
+        <v>22</v>
+      </c>
+      <c r="H91" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="I91" s="2"/>
-      <c r="J91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
       <c r="O91" s="2"/>
     </row>
     <row r="92" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D92" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E92" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="F92" s="1">
-        <v>4</v>
-      </c>
-      <c r="H92" s="1">
-        <f t="shared" si="1"/>
-        <v>0.24</v>
+      <c r="C92" t="s">
+        <v>44</v>
+      </c>
+      <c r="D92" s="1"/>
+      <c r="E92" s="4"/>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="H92" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="I92" s="2"/>
-      <c r="J92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
       <c r="O92" s="2"/>
     </row>
     <row r="93" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C93" t="s">
-        <v>43</v>
-      </c>
       <c r="D93" s="1"/>
       <c r="E93" s="4"/>
-      <c r="F93">
-        <v>18</v>
+      <c r="F93" s="1">
+        <v>0</v>
       </c>
       <c r="H93" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I93" s="2"/>
-      <c r="J93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
       <c r="O93" s="2"/>
     </row>
     <row r="94" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>45</v>
+      </c>
       <c r="D94" s="1"/>
       <c r="E94" s="4"/>
-      <c r="F94" s="1">
-        <v>18</v>
+      <c r="F94">
+        <v>3</v>
       </c>
       <c r="H94" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I94" s="2"/>
-      <c r="J94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
       <c r="O94" s="2"/>
     </row>
     <row r="95" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D95" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E95" s="4">
-        <v>1</v>
-      </c>
+      <c r="D95" s="1"/>
+      <c r="E95" s="4"/>
       <c r="F95" s="1">
-        <v>18</v>
-      </c>
-      <c r="H95" s="1">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="H95" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="I95" s="2"/>
-      <c r="J95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
       <c r="O95" s="2"/>
     </row>
     <row r="96" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D96" s="1"/>
-      <c r="E96" s="4"/>
+      <c r="D96" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" s="4">
+        <v>0.91700000000000004</v>
+      </c>
       <c r="F96" s="1">
-        <v>18</v>
-      </c>
-      <c r="H96" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>3</v>
+      </c>
+      <c r="H96" s="1">
+        <f t="shared" si="1"/>
+        <v>2.7510000000000003</v>
       </c>
       <c r="I96" s="2"/>
-      <c r="J96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
       <c r="O96" s="2"/>
     </row>
     <row r="97" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C97" t="s">
-        <v>44</v>
-      </c>
-      <c r="D97" s="1"/>
-      <c r="E97" s="4"/>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="H97" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D97" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E97" s="4">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="F97" s="1">
+        <v>3</v>
+      </c>
+      <c r="H97" s="1">
+        <f t="shared" si="1"/>
+        <v>0.246</v>
       </c>
       <c r="I97" s="2"/>
-      <c r="J97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
@@ -2617,14 +2771,13 @@
       <c r="D98" s="1"/>
       <c r="E98" s="4"/>
       <c r="F98" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H98" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I98" s="2"/>
-      <c r="J98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
@@ -2632,19 +2785,18 @@
     </row>
     <row r="99" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="4"/>
       <c r="F99">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H99" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I99" s="2"/>
-      <c r="J99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
@@ -2654,14 +2806,13 @@
       <c r="D100" s="1"/>
       <c r="E100" s="4"/>
       <c r="F100" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H100" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I100" s="2"/>
-      <c r="J100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
@@ -2672,217 +2823,202 @@
         <v>19</v>
       </c>
       <c r="E101" s="4">
-        <v>0.91700000000000004</v>
+        <v>1</v>
       </c>
       <c r="F101" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H101" s="1">
         <f t="shared" si="1"/>
-        <v>0.91700000000000004</v>
+        <v>7</v>
       </c>
       <c r="I101" s="2"/>
-      <c r="J101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
       <c r="O101" s="2"/>
     </row>
     <row r="102" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D102" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E102" s="4">
-        <v>8.2000000000000003E-2</v>
-      </c>
+      <c r="D102" s="1"/>
+      <c r="E102" s="4"/>
       <c r="F102" s="1">
-        <v>1</v>
-      </c>
-      <c r="H102" s="1">
-        <f t="shared" si="1"/>
-        <v>8.2000000000000003E-2</v>
+        <v>7</v>
+      </c>
+      <c r="H102" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="I102" s="2"/>
-      <c r="J102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
       <c r="O102" s="2"/>
     </row>
     <row r="103" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>47</v>
+      </c>
       <c r="D103" s="1"/>
       <c r="E103" s="4"/>
-      <c r="F103" s="1">
-        <v>1</v>
+      <c r="F103">
+        <v>11</v>
       </c>
       <c r="H103" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I103" s="2"/>
-      <c r="J103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
       <c r="O103" s="2"/>
     </row>
     <row r="104" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C104" t="s">
-        <v>46</v>
-      </c>
       <c r="D104" s="1"/>
       <c r="E104" s="4"/>
-      <c r="F104">
-        <v>7</v>
+      <c r="F104" s="1">
+        <v>11</v>
       </c>
       <c r="H104" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I104" s="2"/>
-      <c r="J104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
       <c r="O104" s="2"/>
     </row>
     <row r="105" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D105" s="1"/>
-      <c r="E105" s="4"/>
+      <c r="D105" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E105" s="4">
+        <v>1</v>
+      </c>
       <c r="F105" s="1">
-        <v>7</v>
-      </c>
-      <c r="H105" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>11</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="I105" s="2"/>
-      <c r="J105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
       <c r="O105" s="2"/>
     </row>
     <row r="106" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D106" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E106" s="4">
-        <v>1</v>
-      </c>
+      <c r="D106" s="1"/>
+      <c r="E106" s="4"/>
       <c r="F106" s="1">
-        <v>7</v>
-      </c>
-      <c r="H106" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="H106" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="I106" s="2"/>
-      <c r="J106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
       <c r="O106" s="2"/>
     </row>
     <row r="107" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>48</v>
+      </c>
       <c r="D107" s="1"/>
       <c r="E107" s="4"/>
-      <c r="F107" s="1">
-        <v>7</v>
+      <c r="F107">
+        <v>8</v>
       </c>
       <c r="H107" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I107" s="2"/>
-      <c r="J107" s="1"/>
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
     <row r="108" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C108" t="s">
-        <v>47</v>
-      </c>
       <c r="D108" s="1"/>
       <c r="E108" s="4"/>
-      <c r="F108">
-        <v>11</v>
+      <c r="F108" s="1">
+        <v>8</v>
       </c>
       <c r="H108" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I108" s="2"/>
-      <c r="J108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
     <row r="109" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D109" s="1"/>
-      <c r="E109" s="4"/>
+      <c r="D109" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E109" s="4">
+        <v>1</v>
+      </c>
       <c r="F109" s="1">
-        <v>11</v>
-      </c>
-      <c r="H109" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>8</v>
+      </c>
+      <c r="H109" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="I109" s="2"/>
-      <c r="J109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
     <row r="110" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D110" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E110" s="4">
-        <v>1</v>
-      </c>
+      <c r="D110" s="1"/>
+      <c r="E110" s="4"/>
       <c r="F110" s="1">
-        <v>11</v>
-      </c>
-      <c r="H110" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="H110" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="I110" s="2"/>
-      <c r="J110" s="1"/>
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
     <row r="111" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>49</v>
+      </c>
       <c r="D111" s="1"/>
       <c r="E111" s="4"/>
-      <c r="F111" s="1">
-        <v>11</v>
+      <c r="F111">
+        <v>6</v>
       </c>
       <c r="H111" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I111" s="2"/>
-      <c r="J111" s="1"/>
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
     <row r="112" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C112" t="s">
-        <v>48</v>
-      </c>
       <c r="D112" s="1"/>
       <c r="E112" s="4"/>
-      <c r="F112">
+      <c r="F112" s="1">
         <v>6</v>
       </c>
       <c r="H112" s="1" t="str">
@@ -2890,27 +3026,32 @@
         <v/>
       </c>
       <c r="I112" s="2"/>
-      <c r="J112" s="1"/>
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
     <row r="113" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D113" s="1"/>
-      <c r="E113" s="4"/>
-      <c r="H113" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D113" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E113" s="4">
+        <v>1</v>
+      </c>
+      <c r="F113" s="1">
+        <v>6</v>
+      </c>
+      <c r="H113" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="I113" s="2"/>
     </row>
     <row r="114" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D114" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E114" s="4">
-        <v>1</v>
+      <c r="D114" s="1"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="1">
+        <v>6</v>
       </c>
       <c r="H114" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2919,8 +3060,14 @@
       <c r="I114" s="2"/>
     </row>
     <row r="115" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>50</v>
+      </c>
       <c r="D115" s="1"/>
       <c r="E115" s="4"/>
+      <c r="F115">
+        <v>7</v>
+      </c>
       <c r="H115" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2928,13 +3075,10 @@
       <c r="I115" s="2"/>
     </row>
     <row r="116" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C116" t="s">
-        <v>49</v>
-      </c>
       <c r="D116" s="1"/>
       <c r="E116" s="4"/>
-      <c r="F116">
-        <v>2</v>
+      <c r="F116" s="1">
+        <v>7</v>
       </c>
       <c r="H116" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2943,30 +3087,43 @@
       <c r="I116" s="2"/>
     </row>
     <row r="117" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D117" s="1"/>
-      <c r="E117" s="4"/>
-      <c r="H117" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D117" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="F117" s="1">
+        <v>7</v>
+      </c>
+      <c r="H117" s="1">
+        <f t="shared" si="1"/>
+        <v>6.02</v>
       </c>
       <c r="I117" s="2"/>
     </row>
     <row r="118" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D118" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E118" s="4">
-        <v>1</v>
-      </c>
-      <c r="H118" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="F118" s="1">
+        <v>7</v>
+      </c>
+      <c r="H118" s="1">
+        <f t="shared" si="1"/>
+        <v>0.97300000000000009</v>
       </c>
       <c r="I118" s="2"/>
     </row>
     <row r="119" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D119" s="1"/>
       <c r="E119" s="4"/>
+      <c r="F119" s="1">
+        <v>7</v>
+      </c>
       <c r="H119" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2975,12 +3132,12 @@
     </row>
     <row r="120" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="4"/>
       <c r="F120">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="H120" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2991,6 +3148,9 @@
     <row r="121" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D121" s="1"/>
       <c r="E121" s="4"/>
+      <c r="F121" s="1">
+        <v>85</v>
+      </c>
       <c r="H121" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3002,20 +3162,22 @@
         <v>19</v>
       </c>
       <c r="E122" s="4">
-        <v>0.86</v>
-      </c>
-      <c r="H122" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="F122" s="1">
+        <v>85</v>
+      </c>
+      <c r="H122" s="1">
+        <f t="shared" si="1"/>
+        <v>85</v>
       </c>
       <c r="I122" s="2"/>
     </row>
     <row r="123" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D123" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E123" s="4">
-        <v>0.13900000000000001</v>
+      <c r="D123" s="1"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="1">
+        <v>85</v>
       </c>
       <c r="H123" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3024,8 +3186,14 @@
       <c r="I123" s="2"/>
     </row>
     <row r="124" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>52</v>
+      </c>
       <c r="D124" s="1"/>
       <c r="E124" s="4"/>
+      <c r="F124">
+        <v>10</v>
+      </c>
       <c r="H124" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3033,13 +3201,10 @@
       <c r="I124" s="2"/>
     </row>
     <row r="125" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C125" t="s">
-        <v>51</v>
-      </c>
       <c r="D125" s="1"/>
       <c r="E125" s="4"/>
-      <c r="F125">
-        <v>51</v>
+      <c r="F125" s="1">
+        <v>10</v>
       </c>
       <c r="H125" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3048,20 +3213,26 @@
       <c r="I125" s="2"/>
     </row>
     <row r="126" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D126" s="1"/>
-      <c r="E126" s="4"/>
-      <c r="H126" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D126" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E126" s="4">
+        <v>1</v>
+      </c>
+      <c r="F126" s="1">
+        <v>10</v>
+      </c>
+      <c r="H126" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="I126" s="2"/>
     </row>
     <row r="127" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D127" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E127" s="4">
-        <v>1</v>
+      <c r="D127" s="1"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="1">
+        <v>10</v>
       </c>
       <c r="H127" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3070,92 +3241,114 @@
       <c r="I127" s="2"/>
     </row>
     <row r="128" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>53</v>
+      </c>
       <c r="D128" s="1"/>
       <c r="E128" s="4"/>
+      <c r="F128">
+        <v>0</v>
+      </c>
       <c r="H128" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I128" s="2"/>
     </row>
-    <row r="129" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C129" t="s">
-        <v>52</v>
-      </c>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D129" s="1"/>
       <c r="E129" s="4"/>
-      <c r="F129">
-        <v>8</v>
+      <c r="F129" s="1">
+        <v>0</v>
       </c>
       <c r="H129" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H129:H164" si="2">IF($E129*$F129=0,"",$E129*$F129)</f>
         <v/>
       </c>
       <c r="I129" s="2"/>
     </row>
-    <row r="130" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
+        <v>54</v>
+      </c>
       <c r="D130" s="1"/>
       <c r="E130" s="4"/>
+      <c r="F130">
+        <v>4</v>
+      </c>
       <c r="H130" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I130" s="2"/>
     </row>
-    <row r="131" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D131" s="1" t="s">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D131" s="1"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="1">
+        <v>4</v>
+      </c>
+      <c r="H131" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I131" s="2"/>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D132" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E131" s="4">
-        <v>1</v>
-      </c>
-      <c r="H131" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I131" s="2"/>
-    </row>
-    <row r="132" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D132" s="1"/>
-      <c r="E132" s="4"/>
-      <c r="H132" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="E132" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="F132">
+        <v>4</v>
+      </c>
+      <c r="H132" s="1">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
       </c>
       <c r="I132" s="2"/>
     </row>
-    <row r="133" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C133" t="s">
-        <v>53</v>
-      </c>
-      <c r="D133" s="1"/>
-      <c r="E133" s="4"/>
-      <c r="F133">
-        <v>0</v>
-      </c>
-      <c r="H133" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D133" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E133" s="4">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F133" s="1">
+        <v>4</v>
+      </c>
+      <c r="H133" s="1">
+        <f t="shared" si="2"/>
+        <v>0.152</v>
       </c>
       <c r="I133" s="2"/>
     </row>
-    <row r="134" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>79</v>
+      </c>
       <c r="D134" s="1"/>
       <c r="E134" s="4"/>
+      <c r="F134">
+        <v>0</v>
+      </c>
       <c r="H134" s="1" t="str">
-        <f t="shared" ref="H134:H138" si="2">IF($E134*$F134=0,"",$E134*$F134)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I134" s="2"/>
     </row>
-    <row r="135" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C135" t="s">
-        <v>54</v>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C135" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D135" s="1"/>
-      <c r="E135" s="4"/>
-      <c r="F135">
-        <v>0</v>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1">
+        <v>4</v>
       </c>
       <c r="H135" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3163,34 +3356,42 @@
       </c>
       <c r="I135" s="2"/>
     </row>
-    <row r="136" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C136" s="1"/>
       <c r="D136" s="1"/>
-      <c r="E136" s="4"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1">
+        <v>4</v>
+      </c>
       <c r="H136" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I136" s="2"/>
     </row>
-    <row r="137" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C137" s="1"/>
       <c r="D137" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E137" s="4">
-        <v>0.875</v>
-      </c>
-      <c r="H137" s="1" t="str">
+        <v>29</v>
+      </c>
+      <c r="E137" s="3">
+        <v>1</v>
+      </c>
+      <c r="F137" s="1">
+        <v>4</v>
+      </c>
+      <c r="H137" s="1">
         <f t="shared" si="2"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I137" s="2"/>
     </row>
-    <row r="138" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D138" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E138" s="4">
-        <v>3.7999999999999999E-2</v>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1">
+        <v>4</v>
       </c>
       <c r="H138" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3198,270 +3399,690 @@
       </c>
       <c r="I138" s="2"/>
     </row>
-    <row r="139" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D139" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E139" s="4"/>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C139" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1">
+        <v>4</v>
+      </c>
+      <c r="H139" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="I139" s="2"/>
     </row>
-    <row r="140" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C140" s="1"/>
       <c r="D140" s="1"/>
-      <c r="E140" s="4"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1">
+        <v>4</v>
+      </c>
+      <c r="H140" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="I140" s="2"/>
     </row>
-    <row r="141" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D141" s="1"/>
-      <c r="E141" s="4"/>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C141" s="1"/>
+      <c r="D141" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E141" s="3">
+        <v>1</v>
+      </c>
+      <c r="F141" s="1">
+        <v>4</v>
+      </c>
+      <c r="H141" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="I141" s="2"/>
     </row>
-    <row r="142" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D142" s="1" t="s">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1">
+        <v>4</v>
+      </c>
+      <c r="H142" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I142" s="2"/>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C143" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1">
+        <v>1</v>
+      </c>
+      <c r="H143" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I143" s="2"/>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1">
+        <v>1</v>
+      </c>
+      <c r="H144" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I144" s="2"/>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C145" s="1"/>
+      <c r="D145" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E145" s="3">
+        <v>1</v>
+      </c>
+      <c r="F145" s="1">
+        <v>1</v>
+      </c>
+      <c r="H145" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I145" s="2"/>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1">
+        <v>1</v>
+      </c>
+      <c r="H146" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I146" s="2"/>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C147" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1">
+        <v>3</v>
+      </c>
+      <c r="H147" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I147" s="2"/>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1">
+        <v>3</v>
+      </c>
+      <c r="H148" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I148" s="2"/>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C149" s="1"/>
+      <c r="D149" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E149" s="3">
+        <v>1</v>
+      </c>
+      <c r="F149" s="1">
+        <v>3</v>
+      </c>
+      <c r="H149" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I149" s="2"/>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1">
+        <v>3</v>
+      </c>
+      <c r="H150" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I150" s="2"/>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C151" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1">
+        <v>1</v>
+      </c>
+      <c r="H151" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I151" s="2"/>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1">
+        <v>1</v>
+      </c>
+      <c r="H152" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I152" s="2"/>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C153" s="1"/>
+      <c r="D153" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E153" s="3">
+        <v>1</v>
+      </c>
+      <c r="F153" s="1">
+        <v>1</v>
+      </c>
+      <c r="H153" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I153" s="2"/>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1">
+        <v>1</v>
+      </c>
+      <c r="H154" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I154" s="2"/>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C155" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1">
+        <v>5</v>
+      </c>
+      <c r="H155" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I155" s="2"/>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1">
+        <v>5</v>
+      </c>
+      <c r="H156" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I156" s="2"/>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C157" s="1"/>
+      <c r="D157" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E157" s="3">
+        <v>1</v>
+      </c>
+      <c r="F157" s="1">
+        <v>5</v>
+      </c>
+      <c r="H157" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I157" s="2"/>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>63</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1">
+        <v>0</v>
+      </c>
+      <c r="H158" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I158" s="2"/>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1">
+        <v>0</v>
+      </c>
+      <c r="H159" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I159" s="2"/>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C160" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1">
+        <v>15</v>
+      </c>
+      <c r="H160" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I160" s="2"/>
+    </row>
+    <row r="161" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1">
+        <v>15</v>
+      </c>
+      <c r="H161" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I161" s="2"/>
+    </row>
+    <row r="162" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1">
+        <v>15</v>
+      </c>
+      <c r="H162" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I162" s="2"/>
+    </row>
+    <row r="163" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C163" s="1"/>
+      <c r="D163" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E142" s="4"/>
-      <c r="I142" s="2"/>
-    </row>
-    <row r="143" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D143" s="1"/>
-      <c r="E143" s="4"/>
-      <c r="I143" s="2"/>
-    </row>
-    <row r="144" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D144" s="1"/>
-      <c r="E144" s="4"/>
-      <c r="I144" s="2"/>
-    </row>
-    <row r="145" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D145" s="1"/>
-      <c r="E145" s="4"/>
-      <c r="I145" s="2"/>
-    </row>
-    <row r="146" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D146" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E146" s="4"/>
-      <c r="I146" s="2"/>
-    </row>
-    <row r="147" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D147" s="1"/>
-      <c r="E147" s="4"/>
-      <c r="I147" s="2"/>
-    </row>
-    <row r="148" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D148" s="1"/>
-      <c r="E148" s="4"/>
-      <c r="I148" s="2"/>
-    </row>
-    <row r="149" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D149" s="1"/>
-      <c r="E149" s="4"/>
-      <c r="I149" s="2"/>
-    </row>
-    <row r="150" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D150" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E150" s="4"/>
-      <c r="I150" s="2"/>
-    </row>
-    <row r="151" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D151" s="1"/>
-      <c r="E151" s="4"/>
-      <c r="I151" s="2"/>
-    </row>
-    <row r="152" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D152" s="1"/>
-      <c r="E152" s="4"/>
-      <c r="I152" s="2"/>
-    </row>
-    <row r="153" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D153" s="1"/>
-      <c r="E153" s="4"/>
-      <c r="I153" s="2"/>
-    </row>
-    <row r="154" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D154" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E154" s="4"/>
-      <c r="I154" s="2"/>
-    </row>
-    <row r="155" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D155" s="1"/>
-      <c r="E155" s="4"/>
-      <c r="I155" s="2"/>
-    </row>
-    <row r="156" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D156" s="1"/>
-      <c r="E156" s="4"/>
-      <c r="I156" s="2"/>
-    </row>
-    <row r="157" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D157" s="1"/>
-      <c r="E157" s="4"/>
-      <c r="I157" s="2"/>
-    </row>
-    <row r="158" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D158" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E158" s="4"/>
-      <c r="I158" s="2"/>
-    </row>
-    <row r="159" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D159" s="1"/>
-      <c r="E159" s="4"/>
-      <c r="I159" s="2"/>
-    </row>
-    <row r="160" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D160" s="1"/>
-      <c r="E160" s="4"/>
-      <c r="I160" s="2"/>
-    </row>
-    <row r="161" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D161" s="1"/>
-      <c r="E161" s="4"/>
-      <c r="I161" s="2"/>
-    </row>
-    <row r="162" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D162" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E162" s="4"/>
-      <c r="I162" s="2"/>
-    </row>
-    <row r="163" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D163" s="1"/>
-      <c r="E163" s="4"/>
+      <c r="E163" s="3">
+        <v>1</v>
+      </c>
+      <c r="F163" s="1">
+        <v>15</v>
+      </c>
+      <c r="H163" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
       <c r="I163" s="2"/>
     </row>
-    <row r="164" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C164" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="D164" s="1"/>
-      <c r="E164" s="4"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1">
+        <v>0</v>
+      </c>
+      <c r="H164" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="I164" s="2"/>
     </row>
-    <row r="165" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C165" s="1"/>
       <c r="D165" s="1"/>
-      <c r="E165" s="4"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H165" s="1" t="str">
+        <f>IFERROR(IF($E165*$F165=0,"",$E165*$F165),"")</f>
+        <v/>
+      </c>
       <c r="I165" s="2"/>
     </row>
-    <row r="166" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C166" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="D166" s="1"/>
-      <c r="E166" s="4"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1">
+        <v>0</v>
+      </c>
+      <c r="H166" s="1" t="str">
+        <f t="shared" ref="H166:H184" si="3">IFERROR(IF($E166*$F166=0,"",$E166*$F166),"")</f>
+        <v/>
+      </c>
       <c r="I166" s="2"/>
     </row>
-    <row r="167" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C167" s="1"/>
       <c r="D167" s="1"/>
-      <c r="E167" s="4"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H167" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="I167" s="2"/>
     </row>
-    <row r="168" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D168" s="1" t="s">
+    <row r="168" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C168" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1">
+        <v>0</v>
+      </c>
+      <c r="H168" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I168" s="2"/>
+    </row>
+    <row r="169" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H169" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I169" s="2"/>
+    </row>
+    <row r="170" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C170" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1">
+        <v>0</v>
+      </c>
+      <c r="H170" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I170" s="2"/>
+    </row>
+    <row r="171" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H171" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I171" s="2"/>
+    </row>
+    <row r="172" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C172" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1">
+        <v>0</v>
+      </c>
+      <c r="H172" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I172" s="2"/>
+    </row>
+    <row r="173" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H173" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I173" s="2"/>
+    </row>
+    <row r="174" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C174" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1">
+        <v>0</v>
+      </c>
+      <c r="H174" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I174" s="2"/>
+    </row>
+    <row r="175" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H175" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I175" s="2"/>
+    </row>
+    <row r="176" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C176" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1">
+        <v>15</v>
+      </c>
+      <c r="H176" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I176" s="2"/>
+    </row>
+    <row r="177" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1">
+        <v>15</v>
+      </c>
+      <c r="H177" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I177" s="2"/>
+    </row>
+    <row r="178" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1">
+        <v>15</v>
+      </c>
+      <c r="H178" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I178" s="2"/>
+    </row>
+    <row r="179" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C179" s="1"/>
+      <c r="D179" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E179" s="3">
+        <v>1</v>
+      </c>
+      <c r="F179" s="1">
+        <v>15</v>
+      </c>
+      <c r="H179" s="1">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="I179" s="2"/>
+    </row>
+    <row r="180" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C180" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1">
+        <v>12</v>
+      </c>
+      <c r="H180" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I180" s="2"/>
+    </row>
+    <row r="181" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1">
+        <v>12</v>
+      </c>
+      <c r="H181" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I181" s="2"/>
+    </row>
+    <row r="182" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1">
+        <v>12</v>
+      </c>
+      <c r="H182" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I182" s="2"/>
+    </row>
+    <row r="183" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D183" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E168" s="4"/>
-      <c r="I168" s="2"/>
-    </row>
-    <row r="169" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D169" s="1"/>
-      <c r="E169" s="4"/>
-      <c r="I169" s="2"/>
-    </row>
-    <row r="170" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D170" s="1"/>
-      <c r="E170" s="4"/>
-      <c r="I170" s="2"/>
-    </row>
-    <row r="171" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D171" s="1"/>
-      <c r="E171" s="4"/>
-      <c r="I171" s="2"/>
-    </row>
-    <row r="172" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D172" s="1"/>
-      <c r="E172" s="4"/>
-      <c r="I172" s="2"/>
-    </row>
-    <row r="173" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D173" s="1"/>
-      <c r="I173" s="2"/>
-    </row>
-    <row r="174" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D174" s="1"/>
-      <c r="I174" s="2"/>
-    </row>
-    <row r="175" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D175" s="1"/>
-      <c r="I175" s="2"/>
-    </row>
-    <row r="176" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D176" s="1"/>
-      <c r="I176" s="2"/>
-    </row>
-    <row r="177" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D177" s="1"/>
-      <c r="I177" s="2"/>
-    </row>
-    <row r="178" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D178" s="1"/>
-      <c r="I178" s="2"/>
-    </row>
-    <row r="179" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D179" s="1"/>
-      <c r="I179" s="2"/>
-    </row>
-    <row r="180" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D180" s="1"/>
-      <c r="I180" s="2"/>
-    </row>
-    <row r="181" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D181" s="1"/>
-      <c r="I181" s="2"/>
-    </row>
-    <row r="182" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D182" s="1"/>
-      <c r="I182" s="2"/>
-    </row>
-    <row r="183" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D183" s="1"/>
+      <c r="E183" s="3">
+        <v>1</v>
+      </c>
+      <c r="F183" s="1">
+        <v>12</v>
+      </c>
+      <c r="H183" s="1">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
       <c r="I183" s="2"/>
     </row>
-    <row r="184" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D184" s="1" t="s">
-        <v>73</v>
+    <row r="184" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F184" s="1">
+        <f>F180</f>
+        <v>12</v>
+      </c>
+      <c r="H184" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="I184" s="2"/>
     </row>
-    <row r="185" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D185" s="1"/>
+    <row r="185" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F185" s="1"/>
       <c r="I185" s="2"/>
     </row>
-    <row r="186" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D186" s="1"/>
+    <row r="186" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F186" s="1"/>
       <c r="I186" s="2"/>
     </row>
-    <row r="187" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D187" s="1"/>
+    <row r="187" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I187" s="2"/>
     </row>
-    <row r="188" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D188" s="1" t="s">
-        <v>29</v>
-      </c>
+    <row r="188" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I188" s="2"/>
     </row>
-    <row r="189" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I189" s="2"/>
     </row>
-    <row r="190" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I190" s="2"/>
     </row>
-    <row r="191" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I191" s="2"/>
     </row>
-    <row r="192" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I192" s="2"/>
     </row>
     <row r="193" spans="9:9" x14ac:dyDescent="0.25">
@@ -6735,16 +7356,25 @@
       <c r="I1282" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="J2:J29">
+    <sortState ref="J3:N232">
+      <sortCondition ref="J2:J211"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="J2:J214">
+    <sortCondition ref="J2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC189"/>
+  <dimension ref="A1:BG189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6753,13 +7383,17 @@
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="5.140625" customWidth="1"/>
+    <col min="7" max="7" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" customWidth="1"/>
     <col min="9" max="9" width="5.140625" customWidth="1"/>
     <col min="10" max="10" width="43.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.7109375" customWidth="1"/>
     <col min="55" max="55" width="41.7109375" customWidth="1"/>
+    <col min="59" max="59" width="41.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -6920,10 +7554,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
+      <c r="D2">
+        <f>IFERROR(HLOOKUP(A2,J$4:BG$5,2,FALSE),"")</f>
+        <v>2</v>
+      </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
@@ -7075,102 +7713,559 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="str">
+        <f t="shared" ref="D3:D66" si="0">IFERROR(HLOOKUP(A3,J$4:BG$5,2,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="D4">
-        <f>HLOOKUP(A2,F1:BC2,2,FALSE)</f>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
         <v>0</v>
       </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="K5" s="1">
+        <v>15</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1">
+        <v>13</v>
+      </c>
+      <c r="N5" s="1">
+        <v>37</v>
+      </c>
+      <c r="O5" s="1">
+        <v>26</v>
+      </c>
+      <c r="P5" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>71</v>
+      </c>
+      <c r="S5" s="1">
+        <v>16</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>2</v>
+      </c>
+      <c r="V5" s="1">
+        <v>1</v>
+      </c>
+      <c r="W5" s="1">
+        <v>2</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>12</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>38</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>34</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>11</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>26</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>15</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>12</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>8</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>22</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>7</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>11</v>
+      </c>
+      <c r="AW5" s="1">
+        <v>8</v>
+      </c>
+      <c r="AX5" s="1">
+        <v>6</v>
+      </c>
+      <c r="AY5" s="1">
+        <v>7</v>
+      </c>
+      <c r="AZ5" s="1">
+        <v>85</v>
+      </c>
+      <c r="BA5" s="1">
+        <v>10</v>
+      </c>
+      <c r="BB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE5" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>13</v>
+      </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D8">
-        <f>HLOOKUP(A6,F1:BC2,2,FALSE)</f>
-        <v>1</v>
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8">
+        <v>37</v>
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9">
+        <v>26</v>
+      </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="D10">
-        <f>HLOOKUP(A10,F1:BB2,2,FALSE)</f>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12">
+        <v>71</v>
+      </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="D13" s="1"/>
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13">
+        <v>16</v>
+      </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="1">
-        <f>HLOOKUP(A14,F1:BC2,2,FALSE)</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="D15" s="1"/>
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D17" s="1"/>
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -7178,13 +8273,31 @@
         <v>23</v>
       </c>
       <c r="D18" s="1">
-        <f>HLOOKUP(A18,E1:BB2,2,FALSE)</f>
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" t="s">
+        <v>68</v>
       </c>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D19" s="1"/>
+      <c r="D19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19">
+        <v>12</v>
+      </c>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -7194,11 +8307,32 @@
       <c r="C20" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" t="s">
+        <v>69</v>
+      </c>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D21" s="1"/>
+      <c r="D21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21">
+        <v>38</v>
+      </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -7206,13 +8340,31 @@
         <v>24</v>
       </c>
       <c r="D22" s="1">
-        <f>HLOOKUP(A22,E1:BB2,2,FALSE)</f>
-        <v>-11</v>
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="F22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
       </c>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D23" s="1"/>
+      <c r="D23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" t="s">
+        <v>70</v>
+      </c>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -7222,11 +8374,35 @@
       <c r="C24" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24">
+        <v>8</v>
+      </c>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D25" s="1"/>
+      <c r="D25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F25" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25">
+        <v>34</v>
+      </c>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -7234,13 +8410,34 @@
         <v>25</v>
       </c>
       <c r="D26" s="1">
-        <f>HLOOKUP(A26,E1:BB2,2,FALSE)</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
       </c>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D27" s="1"/>
+      <c r="D27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F27" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -7250,11 +8447,35 @@
       <c r="C28" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28">
+        <v>11</v>
+      </c>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D29" s="1"/>
+      <c r="D29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29">
+        <v>26</v>
+      </c>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -7262,13 +8483,31 @@
         <v>26</v>
       </c>
       <c r="D30" s="1">
-        <f>HLOOKUP(A30,E1:BB2,2,FALSE)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" t="s">
+        <v>71</v>
       </c>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D31" s="1"/>
+      <c r="D31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31">
+        <v>15</v>
+      </c>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -7278,11 +8517,35 @@
       <c r="C32" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="1"/>
+      <c r="D32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F32" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" t="s">
+        <v>74</v>
+      </c>
+      <c r="H32">
+        <v>12</v>
+      </c>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D33" s="1"/>
+      <c r="D33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F33" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -7290,13 +8553,34 @@
         <v>27</v>
       </c>
       <c r="D34" s="1">
-        <f>HLOOKUP(A34,E1:BB2,2,FALSE)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34">
+        <v>8</v>
       </c>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D35" s="1"/>
+      <c r="D35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -7306,11 +8590,32 @@
       <c r="C36" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="1"/>
+      <c r="D36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F36" t="s">
+        <v>75</v>
+      </c>
+      <c r="G36" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36">
+        <v>22</v>
+      </c>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D37" s="1"/>
+      <c r="D37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G37" t="s">
+        <v>44</v>
+      </c>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -7318,13 +8623,34 @@
         <v>28</v>
       </c>
       <c r="D38" s="1">
-        <f>HLOOKUP(A38,E1:BB2,2,FALSE)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>75</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
       </c>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D39" s="1"/>
+      <c r="D39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F39" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39">
+        <v>4</v>
+      </c>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -7334,7 +8660,19 @@
       <c r="C40" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="1"/>
+      <c r="D40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F40" t="s">
+        <v>75</v>
+      </c>
+      <c r="G40" t="s">
+        <v>58</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -7344,11 +8682,35 @@
       <c r="C41" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="1"/>
+      <c r="D41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F41" t="s">
+        <v>75</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41">
+        <v>7</v>
+      </c>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D42" s="1"/>
+      <c r="D42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G42" t="s">
+        <v>47</v>
+      </c>
+      <c r="H42">
+        <v>11</v>
+      </c>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -7356,13 +8718,34 @@
         <v>30</v>
       </c>
       <c r="D43" s="1">
-        <f>HLOOKUP(A43,E1:BB2,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
+      <c r="F43" t="s">
+        <v>75</v>
+      </c>
+      <c r="G43" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43">
+        <v>8</v>
+      </c>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D44" s="1"/>
+      <c r="D44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F44" t="s">
+        <v>75</v>
+      </c>
+      <c r="G44" t="s">
+        <v>49</v>
+      </c>
+      <c r="H44">
+        <v>6</v>
+      </c>
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -7372,11 +8755,35 @@
       <c r="C45" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="1"/>
+      <c r="D45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F45" t="s">
+        <v>75</v>
+      </c>
+      <c r="G45" t="s">
+        <v>50</v>
+      </c>
+      <c r="H45">
+        <v>7</v>
+      </c>
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D46" s="1"/>
+      <c r="D46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F46" t="s">
+        <v>75</v>
+      </c>
+      <c r="G46" t="s">
+        <v>51</v>
+      </c>
+      <c r="H46">
+        <v>85</v>
+      </c>
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -7384,13 +8791,31 @@
         <v>31</v>
       </c>
       <c r="D47" s="1">
-        <f>HLOOKUP(A47,E1:BB2,2,FALSE)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="F47" t="s">
+        <v>75</v>
+      </c>
+      <c r="G47" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47">
+        <v>10</v>
       </c>
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D48" s="1"/>
+      <c r="D48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F48" t="s">
+        <v>75</v>
+      </c>
+      <c r="G48" t="s">
+        <v>53</v>
+      </c>
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -7400,7 +8825,19 @@
       <c r="C49" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="1"/>
+      <c r="D49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F49" t="s">
+        <v>75</v>
+      </c>
+      <c r="G49" t="s">
+        <v>54</v>
+      </c>
+      <c r="H49">
+        <v>4</v>
+      </c>
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -7410,23 +8847,68 @@
       <c r="C50" t="s">
         <v>32</v>
       </c>
-      <c r="D50" s="1"/>
+      <c r="D50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F50" t="s">
+        <v>75</v>
+      </c>
+      <c r="G50" t="s">
+        <v>59</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D51" s="1"/>
+      <c r="D51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F51" t="s">
+        <v>75</v>
+      </c>
+      <c r="G51" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>33</v>
       </c>
       <c r="D52" s="1">
-        <f>HLOOKUP(A52,E1:BB2,2,FALSE)</f>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>75</v>
+      </c>
+      <c r="G52" t="s">
+        <v>61</v>
+      </c>
+      <c r="H52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D53" s="1"/>
+      <c r="D53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F53" t="s">
+        <v>75</v>
+      </c>
+      <c r="G53" t="s">
+        <v>62</v>
+      </c>
+      <c r="H53">
+        <v>5</v>
+      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B54" s="3">
@@ -7435,22 +8917,31 @@
       <c r="C54" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="1"/>
+      <c r="D54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D55" s="1"/>
+      <c r="D55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>34</v>
       </c>
       <c r="D56" s="1">
-        <f>HLOOKUP(A56,E1:BB2,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D57" s="1"/>
+      <c r="D57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
@@ -7459,22 +8950,31 @@
       <c r="C58" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="1"/>
+      <c r="D58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D59" s="1"/>
+      <c r="D59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>35</v>
       </c>
       <c r="D60" s="1">
-        <f>HLOOKUP(A60,E1:BB2,2,FALSE)</f>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D61" s="1"/>
+      <c r="D61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B62" s="3">
@@ -7483,22 +8983,31 @@
       <c r="C62" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="1"/>
+      <c r="D62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D63" s="1"/>
+      <c r="D63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>36</v>
       </c>
       <c r="D64" s="1">
-        <f>HLOOKUP(A64,E1:BB2,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D65" s="1"/>
+      <c r="D65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" s="3">
@@ -7507,22 +9016,31 @@
       <c r="C66" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="1"/>
+      <c r="D66" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D67" s="1"/>
+      <c r="D67" s="1" t="str">
+        <f t="shared" ref="D67:D130" si="1">IFERROR(HLOOKUP(A67,J$4:BG$5,2,FALSE),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>37</v>
       </c>
       <c r="D68" s="1">
-        <f>HLOOKUP(A68,E$1:BB$2,2,FALSE)</f>
-        <v>-1</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D69" s="1"/>
+      <c r="D69" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B70" s="3">
@@ -7531,22 +9049,31 @@
       <c r="C70" t="s">
         <v>19</v>
       </c>
-      <c r="D70" s="1"/>
+      <c r="D70" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D71" s="1"/>
+      <c r="D71" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>38</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" ref="D69:D132" si="0">HLOOKUP(A72,E$1:BB$2,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D73" s="1"/>
+      <c r="D73" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B74" s="3">
@@ -7555,7 +9082,10 @@
       <c r="C74" t="s">
         <v>19</v>
       </c>
-      <c r="D74" s="1"/>
+      <c r="D74" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" s="3">
@@ -7564,22 +9094,31 @@
       <c r="C75" t="s">
         <v>29</v>
       </c>
-      <c r="D75" s="1"/>
+      <c r="D75" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D76" s="1"/>
+      <c r="D76" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>39</v>
       </c>
       <c r="D77" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D78" s="1"/>
+      <c r="D78" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" s="3">
@@ -7588,22 +9127,31 @@
       <c r="C79" t="s">
         <v>19</v>
       </c>
-      <c r="D79" s="1"/>
+      <c r="D79" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D80" s="1"/>
+      <c r="D80" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>40</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D82" s="1"/>
+      <c r="D82" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B83" s="3">
@@ -7612,22 +9160,31 @@
       <c r="C83" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="1"/>
+      <c r="D83" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D84" s="1"/>
+      <c r="D84" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>41</v>
       </c>
       <c r="D85" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D86" s="1"/>
+      <c r="D86" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
@@ -7636,22 +9193,31 @@
       <c r="C87" t="s">
         <v>19</v>
       </c>
-      <c r="D87" s="1"/>
+      <c r="D87" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D88" s="1"/>
+      <c r="D88" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>42</v>
       </c>
       <c r="D89" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D90" s="1"/>
+      <c r="D90" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B91" s="3">
@@ -7660,22 +9226,31 @@
       <c r="C91" t="s">
         <v>19</v>
       </c>
-      <c r="D91" s="1"/>
+      <c r="D91" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D92" s="1"/>
+      <c r="D92" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>43</v>
       </c>
       <c r="D93" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D94" s="1"/>
+      <c r="D94" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B95" s="3">
@@ -7684,34 +9259,46 @@
       <c r="C95" t="s">
         <v>19</v>
       </c>
-      <c r="D95" s="1"/>
+      <c r="D95" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D96" s="1"/>
+      <c r="D96" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>44</v>
       </c>
       <c r="D97" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D98" s="1"/>
+      <c r="D98" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>45</v>
       </c>
       <c r="D99" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D100" s="1"/>
+      <c r="D100" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B101" s="3">
@@ -7720,7 +9307,10 @@
       <c r="C101" t="s">
         <v>19</v>
       </c>
-      <c r="D101" s="1"/>
+      <c r="D101" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B102" s="3">
@@ -7729,22 +9319,31 @@
       <c r="C102" t="s">
         <v>32</v>
       </c>
-      <c r="D102" s="1"/>
+      <c r="D102" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D103" s="1"/>
+      <c r="D103" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>46</v>
       </c>
       <c r="D104" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D105" s="1"/>
+      <c r="D105" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B106" s="3">
@@ -7753,22 +9352,31 @@
       <c r="C106" t="s">
         <v>19</v>
       </c>
-      <c r="D106" s="1"/>
+      <c r="D106" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D107" s="1"/>
+      <c r="D107" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>47</v>
       </c>
       <c r="D108" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D109" s="1"/>
+      <c r="D109" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B110" s="3">
@@ -7777,22 +9385,31 @@
       <c r="C110" t="s">
         <v>19</v>
       </c>
-      <c r="D110" s="1"/>
+      <c r="D110" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D111" s="1"/>
+      <c r="D111" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>48</v>
       </c>
       <c r="D112" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D113" s="1"/>
+      <c r="D113" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B114" s="3">
@@ -7801,22 +9418,31 @@
       <c r="C114" t="s">
         <v>19</v>
       </c>
-      <c r="D114" s="1"/>
+      <c r="D114" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D115" s="1"/>
+      <c r="D115" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>49</v>
       </c>
       <c r="D116" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D117" s="1"/>
+      <c r="D117" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B118" s="3">
@@ -7825,22 +9451,31 @@
       <c r="C118" t="s">
         <v>19</v>
       </c>
-      <c r="D118" s="1"/>
+      <c r="D118" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D119" s="1"/>
+      <c r="D119" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>50</v>
       </c>
       <c r="D120" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D121" s="1"/>
+      <c r="D121" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B122" s="3">
@@ -7849,7 +9484,10 @@
       <c r="C122" t="s">
         <v>19</v>
       </c>
-      <c r="D122" s="1"/>
+      <c r="D122" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B123" s="3">
@@ -7858,22 +9496,31 @@
       <c r="C123" t="s">
         <v>29</v>
       </c>
-      <c r="D123" s="1"/>
+      <c r="D123" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D124" s="1"/>
+      <c r="D124" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>51</v>
       </c>
       <c r="D125" s="1">
-        <f t="shared" si="0"/>
-        <v>51</v>
+        <f t="shared" si="1"/>
+        <v>85</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D126" s="1"/>
+      <c r="D126" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B127" s="3">
@@ -7882,22 +9529,31 @@
       <c r="C127" t="s">
         <v>19</v>
       </c>
-      <c r="D127" s="1"/>
+      <c r="D127" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D128" s="1"/>
+      <c r="D128" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>52</v>
       </c>
       <c r="D129" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D130" s="1"/>
+      <c r="D130" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B131" s="3">
@@ -7906,34 +9562,46 @@
       <c r="C131" t="s">
         <v>19</v>
       </c>
-      <c r="D131" s="1"/>
+      <c r="D131" s="1" t="str">
+        <f t="shared" ref="D131:D188" si="2">IFERROR(HLOOKUP(A131,J$4:BG$5,2,FALSE),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D132" s="1"/>
+      <c r="D132" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>53</v>
       </c>
       <c r="D133" s="1">
-        <f t="shared" ref="D133:D189" si="1">HLOOKUP(A133,E$1:BB$2,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D134" s="1"/>
+      <c r="D134" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>54</v>
       </c>
       <c r="D135" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D136" s="1"/>
+      <c r="D136" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B137" s="3">
@@ -7942,7 +9610,10 @@
       <c r="C137" t="s">
         <v>19</v>
       </c>
-      <c r="D137" s="1"/>
+      <c r="D137" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B138" s="3">
@@ -7951,7 +9622,10 @@
       <c r="C138" t="s">
         <v>29</v>
       </c>
-      <c r="D138" s="1"/>
+      <c r="D138" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
@@ -7963,19 +9637,25 @@
       <c r="C139" t="s">
         <v>56</v>
       </c>
-      <c r="D139" s="1"/>
+      <c r="D139" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>57</v>
       </c>
       <c r="D140" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D141" s="1"/>
+      <c r="D141" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B142" s="3">
@@ -7984,22 +9664,31 @@
       <c r="C142" t="s">
         <v>29</v>
       </c>
-      <c r="D142" s="1"/>
+      <c r="D142" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D143" s="1"/>
+      <c r="D143" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>58</v>
       </c>
       <c r="D144" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D145" s="1"/>
+      <c r="D145" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B146" s="3">
@@ -8008,22 +9697,31 @@
       <c r="C146" t="s">
         <v>19</v>
       </c>
-      <c r="D146" s="1"/>
+      <c r="D146" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D147" s="1"/>
+      <c r="D147" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>59</v>
       </c>
       <c r="D148" s="1">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D149" s="1"/>
+      <c r="D149" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B150" s="3">
@@ -8032,22 +9730,31 @@
       <c r="C150" t="s">
         <v>19</v>
       </c>
-      <c r="D150" s="1"/>
+      <c r="D150" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D151" s="1"/>
+      <c r="D151" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>60</v>
       </c>
       <c r="D152" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D153" s="1"/>
+      <c r="D153" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B154" s="3">
@@ -8056,22 +9763,31 @@
       <c r="C154" t="s">
         <v>19</v>
       </c>
-      <c r="D154" s="1"/>
+      <c r="D154" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D155" s="1"/>
+      <c r="D155" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>61</v>
       </c>
       <c r="D156" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D157" s="1"/>
+      <c r="D157" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B158" s="3">
@@ -8080,19 +9796,31 @@
       <c r="C158" t="s">
         <v>19</v>
       </c>
-      <c r="D158" s="1"/>
+      <c r="D158" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D159" s="1"/>
+      <c r="D159" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>62</v>
       </c>
-      <c r="D160" s="1"/>
+      <c r="D160" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D161" s="1"/>
+      <c r="D161" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B162" s="3">
@@ -8101,7 +9829,10 @@
       <c r="C162" t="s">
         <v>19</v>
       </c>
-      <c r="D162" s="1"/>
+      <c r="D162" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
@@ -8110,31 +9841,40 @@
       <c r="B163" t="s">
         <v>63</v>
       </c>
-      <c r="D163" s="1"/>
+      <c r="D163" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>64</v>
       </c>
       <c r="D164" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D165" s="1"/>
+      <c r="D165" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>65</v>
       </c>
       <c r="D166" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D167" s="1"/>
+      <c r="D167" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B168" s="3">
@@ -8143,94 +9883,121 @@
       <c r="C168" t="s">
         <v>29</v>
       </c>
-      <c r="D168" s="1"/>
+      <c r="D168" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D169" s="1"/>
+      <c r="D169" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>66</v>
       </c>
       <c r="D170" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D171" s="1"/>
+      <c r="D171" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>67</v>
       </c>
       <c r="D172" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D173" s="1"/>
+      <c r="D173" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>68</v>
       </c>
       <c r="D174" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D175" s="1"/>
+      <c r="D175" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>69</v>
       </c>
       <c r="D176" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D177" s="1"/>
+      <c r="D177" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>70</v>
       </c>
       <c r="D178" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D179" s="1"/>
+      <c r="D179" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>71</v>
       </c>
       <c r="D180" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D181" s="1"/>
+      <c r="D181" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>72</v>
       </c>
       <c r="D182" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D183" s="1"/>
+      <c r="D183" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B184" s="3">
@@ -8239,22 +10006,31 @@
       <c r="C184" t="s">
         <v>73</v>
       </c>
-      <c r="D184" s="1"/>
+      <c r="D184" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D185" s="1"/>
+      <c r="D185" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>74</v>
       </c>
       <c r="D186" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D187" s="1"/>
+      <c r="D187" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B188" s="3">
@@ -8263,10 +10039,16 @@
       <c r="C188" t="s">
         <v>29</v>
       </c>
-      <c r="D188" s="1"/>
+      <c r="D188" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D189" s="1"/>
+      <c r="D189" s="1" t="str">
+        <f t="shared" ref="D133:D189" si="3">IFERROR(HLOOKUP(A187,J$4:BG$5,2,FALSE),"")</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Feb_2008.xlsx
+++ b/Feb_2008.xlsx
@@ -398,15 +398,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Feb_2008_LOC_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Feb_2008_LOC" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Feb_2008_LOC" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Feb_2008" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Feb_2008" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Feb_2008_LOC_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -679,7 +679,7 @@
   <dimension ref="A1:R1282"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,7 +828,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="1" t="str">
-        <f t="shared" ref="H4:H64" si="0">IF($E4*$F4=0,"",$E4*$F4)</f>
+        <f>IF($E4*$F4=0,"",$E4*$F4)</f>
         <v/>
       </c>
       <c r="I4" s="2"/>
@@ -897,7 +897,7 @@
         <v>-1</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H4:H64" si="0">IF($E6*$F6=0,"",$E6*$F6)</f>
         <v/>
       </c>
       <c r="I6" s="2"/>
@@ -7374,7 +7374,7 @@
   <dimension ref="A1:BG189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10046,7 +10046,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D189" s="1" t="str">
-        <f t="shared" ref="D133:D189" si="3">IFERROR(HLOOKUP(A187,J$4:BG$5,2,FALSE),"")</f>
+        <f t="shared" ref="D189" si="3">IFERROR(HLOOKUP(A187,J$4:BG$5,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
@@ -10060,7 +10060,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M187"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
